--- a/opm_hero_property/heroes/42.xlsx
+++ b/opm_hero_property/heroes/42.xlsx
@@ -14,6 +14,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="talent" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mechanical" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="limiter" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="status" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1197,7 +1198,7 @@
         <v>10947</v>
       </c>
       <c r="D4" t="n">
-        <v>10947</v>
+        <v>11881</v>
       </c>
       <c r="E4" t="n">
         <v>250</v>
@@ -1304,7 +1305,7 @@
         <v>12020</v>
       </c>
       <c r="D5" t="n">
-        <v>12020</v>
+        <v>14012</v>
       </c>
       <c r="E5" t="n">
         <v>374</v>
@@ -1411,7 +1412,7 @@
         <v>13282</v>
       </c>
       <c r="D6" t="n">
-        <v>13282</v>
+        <v>16520</v>
       </c>
       <c r="E6" t="n">
         <v>513</v>
@@ -1518,7 +1519,7 @@
         <v>14734</v>
       </c>
       <c r="D7" t="n">
-        <v>14734</v>
+        <v>21754</v>
       </c>
       <c r="E7" t="n">
         <v>962</v>
@@ -1625,7 +1626,7 @@
         <v>16375</v>
       </c>
       <c r="D8" t="n">
-        <v>16375</v>
+        <v>28994</v>
       </c>
       <c r="E8" t="n">
         <v>1425</v>
@@ -1732,7 +1733,7 @@
         <v>18269</v>
       </c>
       <c r="D9" t="n">
-        <v>18269</v>
+        <v>38742</v>
       </c>
       <c r="E9" t="n">
         <v>1881</v>
@@ -1839,7 +1840,7 @@
         <v>19278</v>
       </c>
       <c r="D10" t="n">
-        <v>19278</v>
+        <v>46860</v>
       </c>
       <c r="E10" t="n">
         <v>2223</v>
@@ -1946,7 +1947,7 @@
         <v>20478</v>
       </c>
       <c r="D11" t="n">
-        <v>20478</v>
+        <v>56828</v>
       </c>
       <c r="E11" t="n">
         <v>2593</v>
@@ -2053,7 +2054,7 @@
         <v>23002</v>
       </c>
       <c r="D12" t="n">
-        <v>23002</v>
+        <v>74568</v>
       </c>
       <c r="E12" t="n">
         <v>3192</v>
@@ -2160,7 +2161,7 @@
         <v>23507</v>
       </c>
       <c r="D13" t="n">
-        <v>23507</v>
+        <v>77076</v>
       </c>
       <c r="E13" t="n">
         <v>3591</v>
@@ -2267,7 +2268,7 @@
         <v>24012</v>
       </c>
       <c r="D14" t="n">
-        <v>24012</v>
+        <v>79583</v>
       </c>
       <c r="E14" t="n">
         <v>3990</v>
@@ -2374,7 +2375,7 @@
         <v>24517</v>
       </c>
       <c r="D15" t="n">
-        <v>24517</v>
+        <v>82091</v>
       </c>
       <c r="E15" t="n">
         <v>4389</v>
@@ -2481,7 +2482,7 @@
         <v>25022</v>
       </c>
       <c r="D16" t="n">
-        <v>25022</v>
+        <v>84598</v>
       </c>
       <c r="E16" t="n">
         <v>4788</v>
@@ -2588,7 +2589,7 @@
         <v>25527</v>
       </c>
       <c r="D17" t="n">
-        <v>25527</v>
+        <v>87106</v>
       </c>
       <c r="E17" t="n">
         <v>5187</v>
@@ -6874,4 +6875,2652 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AK23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>战斗类型</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>品质</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>pve等级</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>等级强化</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>装备品质%</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>装备强化%</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>天赋</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>研究所核心</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>职阶</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>限制器</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>机械核心</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>HeroId</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>EnhancePeriod</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Equips</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>TalentLevel</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Skills</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>hp</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>atk</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>crit</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>crit_res</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>crit_dmg</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>precise</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>parry</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>dmg_res</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>fury</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>show_level</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>chase</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>academy</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>limiter</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>mechanical</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>aura</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>type_aura</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>81</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>42</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>81</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>3,2,1,1,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>29330.119594</v>
+      </c>
+      <c r="U2" t="n">
+        <v>5586.1424224</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2045.972</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1800</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>121</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>42</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>121</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>3,2,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>41390.4072815</v>
+      </c>
+      <c r="U3" t="n">
+        <v>8028.107599999999</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3232.778</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1800</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>121</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>161</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>42</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>161</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>74817.935226</v>
+      </c>
+      <c r="U4" t="n">
+        <v>14046.1816</v>
+      </c>
+      <c r="V4" t="n">
+        <v>7170.08</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1800</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>161</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>42</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>161</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>74817.935226</v>
+      </c>
+      <c r="U5" t="n">
+        <v>14046.1816</v>
+      </c>
+      <c r="V5" t="n">
+        <v>7170.08</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1800</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1270</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>670</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>161</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>42</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>161</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>4,3,2,2,1,1,0,0,2</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>66912.551786</v>
+      </c>
+      <c r="U6" t="n">
+        <v>11821.0776</v>
+      </c>
+      <c r="V6" t="n">
+        <v>7170.08</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X6" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1270</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>670</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>240</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>42</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>240</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>5,3,3,3,0,2,1,0,0</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>274685.7571</v>
+      </c>
+      <c r="U7" t="n">
+        <v>48572.81497599999</v>
+      </c>
+      <c r="V7" t="n">
+        <v>31971.0776</v>
+      </c>
+      <c r="W7" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X7" t="n">
+        <v>2120</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>2370</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1290</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>240</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>42</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>240</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,2,1,0,1</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>238581.2331</v>
+      </c>
+      <c r="U8" t="n">
+        <v>39286.353536</v>
+      </c>
+      <c r="V8" t="n">
+        <v>31971.0776</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X8" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>2370</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1290</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
+        <v>240</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
+        <v>25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>42</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>240</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>10</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>247607.3641</v>
+      </c>
+      <c r="U9" t="n">
+        <v>41607.968896</v>
+      </c>
+      <c r="V9" t="n">
+        <v>31971.0776</v>
+      </c>
+      <c r="W9" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1070</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>2370</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1290</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n">
+        <v>240</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H10" t="n">
+        <v>25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>42</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>240</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>20</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>256633.4951</v>
+      </c>
+      <c r="U10" t="n">
+        <v>43929.58425599999</v>
+      </c>
+      <c r="V10" t="n">
+        <v>31971.0776</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1420</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>2370</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1290</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>240</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>42</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>240</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>30</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,1,0,10</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>265659.6261</v>
+      </c>
+      <c r="U11" t="n">
+        <v>46251.199616</v>
+      </c>
+      <c r="V11" t="n">
+        <v>31971.0776</v>
+      </c>
+      <c r="W11" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1770</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>2370</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1290</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>240</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>30</v>
+      </c>
+      <c r="H12" t="n">
+        <v>25</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>42</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>240</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>30</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,0,0,5</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>265659.6261</v>
+      </c>
+      <c r="U12" t="n">
+        <v>46251.199616</v>
+      </c>
+      <c r="V12" t="n">
+        <v>31971.0776</v>
+      </c>
+      <c r="W12" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1770</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>2300</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1220</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>260</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>30</v>
+      </c>
+      <c r="H13" t="n">
+        <v>35</v>
+      </c>
+      <c r="I13" t="n">
+        <v>24</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>42</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>260</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>30</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,0,6</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>392715.248796</v>
+      </c>
+      <c r="U13" t="n">
+        <v>68725.9384064</v>
+      </c>
+      <c r="V13" t="n">
+        <v>54548.0434</v>
+      </c>
+      <c r="W13" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1770</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>2440</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1360</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>260</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>30</v>
+      </c>
+      <c r="H14" t="n">
+        <v>35</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>42</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13</v>
+      </c>
+      <c r="O14" t="n">
+        <v>260</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>30</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>392715.248796</v>
+      </c>
+      <c r="U14" t="n">
+        <v>68725.9384064</v>
+      </c>
+      <c r="V14" t="n">
+        <v>54548.0434</v>
+      </c>
+      <c r="W14" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1770</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>2510</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1430</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="n">
+        <v>300</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>30</v>
+      </c>
+      <c r="H15" t="n">
+        <v>55</v>
+      </c>
+      <c r="I15" t="n">
+        <v>45</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>42</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>15</v>
+      </c>
+      <c r="O15" t="n">
+        <v>300</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>30</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>936780.8202979999</v>
+      </c>
+      <c r="U15" t="n">
+        <v>168089.5277312</v>
+      </c>
+      <c r="V15" t="n">
+        <v>156016.2</v>
+      </c>
+      <c r="W15" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1770</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>2790</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1710</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>16</v>
+      </c>
+      <c r="C16" t="n">
+        <v>400</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>30</v>
+      </c>
+      <c r="H16" t="n">
+        <v>95</v>
+      </c>
+      <c r="I16" t="n">
+        <v>85</v>
+      </c>
+      <c r="J16" t="n">
+        <v>10</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>42</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>16</v>
+      </c>
+      <c r="O16" t="n">
+        <v>400</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>30</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>4926935.31222</v>
+      </c>
+      <c r="U16" t="n">
+        <v>867548.4573728</v>
+      </c>
+      <c r="V16" t="n">
+        <v>780770.5862</v>
+      </c>
+      <c r="W16" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1770</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>3350</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>2270</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>500</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>30</v>
+      </c>
+      <c r="H17" t="n">
+        <v>160</v>
+      </c>
+      <c r="I17" t="n">
+        <v>150</v>
+      </c>
+      <c r="J17" t="n">
+        <v>10</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>42</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>16</v>
+      </c>
+      <c r="O17" t="n">
+        <v>500</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>30</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>8049611.85751</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1418629.2348512</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1270298.0184</v>
+      </c>
+      <c r="W17" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1770</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>4260</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>3180</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>161</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>15</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>42</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9</v>
+      </c>
+      <c r="O18" t="n">
+        <v>256</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>224115.2973665</v>
+      </c>
+      <c r="U18" t="n">
+        <v>40109.9848032</v>
+      </c>
+      <c r="V18" t="n">
+        <v>29037.688</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X18" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1270</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>670</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>256</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="n">
+        <v>200</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" t="n">
+        <v>20</v>
+      </c>
+      <c r="I19" t="n">
+        <v>10</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>42</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>260</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>10</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,0,0,2</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>298725.959265</v>
+      </c>
+      <c r="U19" t="n">
+        <v>53058.58504960001</v>
+      </c>
+      <c r="V19" t="n">
+        <v>39365.9944</v>
+      </c>
+      <c r="W19" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1070</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>2300</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1220</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" t="n">
+        <v>240</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20</v>
+      </c>
+      <c r="H20" t="n">
+        <v>25</v>
+      </c>
+      <c r="I20" t="n">
+        <v>15</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>42</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>264</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>20</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>382376.0989</v>
+      </c>
+      <c r="U20" t="n">
+        <v>66970.9783776</v>
+      </c>
+      <c r="V20" t="n">
+        <v>54236.8072</v>
+      </c>
+      <c r="W20" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1420</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>2370</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1290</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>264</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" t="n">
+        <v>260</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>30</v>
+      </c>
+      <c r="H21" t="n">
+        <v>35</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>42</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>13</v>
+      </c>
+      <c r="O21" t="n">
+        <v>266</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>30</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>437120.751442</v>
+      </c>
+      <c r="U21" t="n">
+        <v>79761.9769472</v>
+      </c>
+      <c r="V21" t="n">
+        <v>62641.1413</v>
+      </c>
+      <c r="W21" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1770</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>2510</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1430</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>266</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>15</v>
+      </c>
+      <c r="C22" t="n">
+        <v>300</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>30</v>
+      </c>
+      <c r="H22" t="n">
+        <v>55</v>
+      </c>
+      <c r="I22" t="n">
+        <v>45</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>42</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>15</v>
+      </c>
+      <c r="O22" t="n">
+        <v>270</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>30</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>502174.2812</v>
+      </c>
+      <c r="U22" t="n">
+        <v>96355.6511744</v>
+      </c>
+      <c r="V22" t="n">
+        <v>77152.6182</v>
+      </c>
+      <c r="W22" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1770</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>2790</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1710</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>16</v>
+      </c>
+      <c r="C23" t="n">
+        <v>400</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>30</v>
+      </c>
+      <c r="H23" t="n">
+        <v>95</v>
+      </c>
+      <c r="I23" t="n">
+        <v>85</v>
+      </c>
+      <c r="J23" t="n">
+        <v>10</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>42</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>16</v>
+      </c>
+      <c r="O23" t="n">
+        <v>280</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>30</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>635544.72619</v>
+      </c>
+      <c r="U23" t="n">
+        <v>130452.2597536</v>
+      </c>
+      <c r="V23" t="n">
+        <v>106486.8086</v>
+      </c>
+      <c r="W23" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1770</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>3350</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>2270</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/opm_hero_property/heroes/42.xlsx
+++ b/opm_hero_property/heroes/42.xlsx
@@ -6883,7 +6883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK23"/>
+  <dimension ref="A1:AS25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7077,6 +7077,46 @@
           <t>type_aura</t>
         </is>
       </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>基础战力</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>装备战力</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>天赋战力</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>研究所战力</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>职阶战力</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>机械核心战力</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>限制器战力</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>总战力</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -7085,31 +7125,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>400</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>81</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7121,106 +7161,130 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="O2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>3,2,1,1,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>29330.119594</v>
+        <v>5061812.31222</v>
       </c>
       <c r="U2" t="n">
-        <v>5586.1424224</v>
+        <v>891276.4573728</v>
       </c>
       <c r="V2" t="n">
-        <v>2045.972</v>
+        <v>802610.5862</v>
       </c>
       <c r="W2" t="n">
-        <v>1500</v>
+        <v>2300</v>
       </c>
       <c r="X2" t="n">
-        <v>1800</v>
+        <v>1770</v>
       </c>
       <c r="Y2" t="n">
         <v>15000</v>
       </c>
       <c r="Z2" t="n">
-        <v>1200</v>
+        <v>3350</v>
       </c>
       <c r="AA2" t="n">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="AB2" t="n">
-        <v>600</v>
+        <v>2270</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="AE2" t="n">
         <v>5000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
       </c>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="n">
+        <v>11648273.12724</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1593634.86150232</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>2006045.6</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>15843226.23874232</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pve</t>
+          <t>pvp</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>121</v>
+        <v>400</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -7232,73 +7296,97 @@
         <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="O3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3,2,2,2,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>41390.4072815</v>
+        <v>635544.72619</v>
       </c>
       <c r="U3" t="n">
-        <v>8028.107599999999</v>
+        <v>130452.2597536</v>
       </c>
       <c r="V3" t="n">
-        <v>3232.778</v>
+        <v>106486.8086</v>
       </c>
       <c r="W3" t="n">
-        <v>1500</v>
+        <v>2300</v>
       </c>
       <c r="X3" t="n">
-        <v>1800</v>
+        <v>1770</v>
       </c>
       <c r="Y3" t="n">
         <v>15000</v>
       </c>
       <c r="Z3" t="n">
-        <v>1200</v>
+        <v>3350</v>
       </c>
       <c r="AA3" t="n">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="AB3" t="n">
-        <v>600</v>
+        <v>2270</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="AE3" t="n">
         <v>5000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
       </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="n">
+        <v>1321515.74128</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>181006.22665984</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>479008.6</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>2164559.96793984</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7307,16 +7395,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -7325,10 +7413,10 @@
         <v>-1</v>
       </c>
       <c r="H4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -7343,10 +7431,10 @@
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -7357,50 +7445,50 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,0,0,0,0</t>
+          <t>3,2,1,1,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>74817.935226</v>
+        <v>7447.0868</v>
       </c>
       <c r="U4" t="n">
-        <v>14046.1816</v>
+        <v>1525.7458</v>
       </c>
       <c r="V4" t="n">
-        <v>7170.08</v>
+        <v>637.972</v>
       </c>
       <c r="W4" t="n">
-        <v>1500</v>
+        <v>562</v>
       </c>
       <c r="X4" t="n">
-        <v>1800</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="n">
         <v>15000</v>
       </c>
       <c r="Z4" t="n">
-        <v>1200</v>
+        <v>240</v>
       </c>
       <c r="AA4" t="n">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="AB4" t="n">
-        <v>600</v>
+        <v>120</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="n">
         <v>5000</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -7410,6 +7498,30 @@
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>18906.42182</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>4549.950000000001</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>23456.37182</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7418,16 +7530,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -7436,13 +7548,13 @@
         <v>-1</v>
       </c>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -7454,10 +7566,10 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -7468,59 +7580,83 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,1,0,0,1</t>
+          <t>3,2,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>74817.935226</v>
+        <v>19897.6243</v>
       </c>
       <c r="U5" t="n">
-        <v>14046.1816</v>
+        <v>3794.575</v>
       </c>
       <c r="V5" t="n">
-        <v>7170.08</v>
+        <v>1991.778</v>
       </c>
       <c r="W5" t="n">
-        <v>1500</v>
+        <v>673</v>
       </c>
       <c r="X5" t="n">
-        <v>1800</v>
+        <v>160</v>
       </c>
       <c r="Y5" t="n">
         <v>15000</v>
       </c>
       <c r="Z5" t="n">
-        <v>1270</v>
+        <v>480</v>
       </c>
       <c r="AA5" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="AB5" t="n">
-        <v>670</v>
+        <v>240</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="AE5" t="n">
         <v>5000</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="n">
+        <v>48427.0153</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>11988.35</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>60415.3653</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7544,16 +7680,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H6" t="n">
         <v>15</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -7575,39 +7711,39 @@
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>4,3,2,2,1,1,0,0,2</t>
+          <t>4,3,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>66912.551786</v>
+        <v>55714.9172</v>
       </c>
       <c r="U6" t="n">
-        <v>11821.0776</v>
+        <v>9825.450000000001</v>
       </c>
       <c r="V6" t="n">
-        <v>7170.08</v>
+        <v>6419.08</v>
       </c>
       <c r="W6" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="X6" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Y6" t="n">
         <v>15000</v>
       </c>
       <c r="Z6" t="n">
-        <v>1270</v>
+        <v>900</v>
       </c>
       <c r="AA6" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="AB6" t="n">
-        <v>670</v>
+        <v>450</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -7622,16 +7758,40 @@
         <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="n">
+        <v>117029.4322</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>9356.799999999999</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>165392.7322</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7640,31 +7800,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>-1</v>
       </c>
       <c r="H7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -7676,10 +7836,10 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -7690,59 +7850,83 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>5,3,3,3,0,2,1,0,0</t>
+          <t>4,3,2,2,0,1,0,0,1</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>274685.7571</v>
+        <v>55714.9172</v>
       </c>
       <c r="U7" t="n">
-        <v>48572.81497599999</v>
+        <v>9825.450000000001</v>
       </c>
       <c r="V7" t="n">
-        <v>31971.0776</v>
+        <v>6419.08</v>
       </c>
       <c r="W7" t="n">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="X7" t="n">
-        <v>2120</v>
+        <v>300</v>
       </c>
       <c r="Y7" t="n">
         <v>15000</v>
       </c>
       <c r="Z7" t="n">
-        <v>2370</v>
+        <v>970</v>
       </c>
       <c r="AA7" t="n">
-        <v>3600</v>
+        <v>1500</v>
       </c>
       <c r="AB7" t="n">
-        <v>1290</v>
+        <v>520</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE7" t="n">
         <v>5000</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="n">
+        <v>117029.4322</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>9538.799999999999</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>165574.7322</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7751,31 +7935,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>15</v>
+      </c>
+      <c r="I8" t="n">
         <v>5</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>25</v>
-      </c>
-      <c r="I8" t="n">
-        <v>15</v>
-      </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -7787,10 +7971,10 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -7801,59 +7985,83 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,2,1,0,1</t>
+          <t>4,3,2,2,1,1,0,0,2</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>238581.2331</v>
+        <v>55912.551786</v>
       </c>
       <c r="U8" t="n">
-        <v>39286.353536</v>
+        <v>9881.077600000001</v>
       </c>
       <c r="V8" t="n">
-        <v>31971.0776</v>
+        <v>6419.08</v>
       </c>
       <c r="W8" t="n">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="X8" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="Y8" t="n">
         <v>15000</v>
       </c>
       <c r="Z8" t="n">
-        <v>2370</v>
+        <v>970</v>
       </c>
       <c r="AA8" t="n">
-        <v>3600</v>
+        <v>1500</v>
       </c>
       <c r="AB8" t="n">
-        <v>1290</v>
+        <v>520</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE8" t="n">
         <v>5000</v>
       </c>
       <c r="AF8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="n">
+        <v>117029.4322</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>581.465026</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>9538.799999999999</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>166156.197226</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7877,7 +8085,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H9" t="n">
         <v>25</v>
@@ -7886,7 +8094,7 @@
         <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -7908,27 +8116,27 @@
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,1,0,5</t>
+          <t>5,3,3,3,0,2,1,0,0</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>247607.3641</v>
+        <v>236889.62</v>
       </c>
       <c r="U9" t="n">
-        <v>41607.968896</v>
+        <v>39211.192</v>
       </c>
       <c r="V9" t="n">
-        <v>31971.0776</v>
+        <v>32098.0776</v>
       </c>
       <c r="W9" t="n">
         <v>2300</v>
       </c>
       <c r="X9" t="n">
-        <v>1070</v>
+        <v>720</v>
       </c>
       <c r="Y9" t="n">
         <v>15000</v>
@@ -7958,13 +8166,37 @@
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="n">
+        <v>536050.791</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>38885</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>704325.791</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7988,7 +8220,7 @@
         <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>25</v>
@@ -7997,7 +8229,7 @@
         <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -8019,27 +8251,27 @@
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,2,1,0,1</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>256633.4951</v>
+        <v>237792.2331</v>
       </c>
       <c r="U10" t="n">
-        <v>43929.58425599999</v>
+        <v>39443.353536</v>
       </c>
       <c r="V10" t="n">
-        <v>31971.0776</v>
+        <v>32098.0776</v>
       </c>
       <c r="W10" t="n">
         <v>2300</v>
       </c>
       <c r="X10" t="n">
-        <v>1420</v>
+        <v>720</v>
       </c>
       <c r="Y10" t="n">
         <v>15000</v>
@@ -8069,13 +8301,37 @@
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
       </c>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="n">
+        <v>536050.791</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>2504.5276984</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>38885</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>706830.3186983999</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8099,7 +8355,7 @@
         <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>25</v>
@@ -8108,7 +8364,7 @@
         <v>15</v>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8130,27 +8386,27 @@
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,1,0,10</t>
+          <t>5,3,3,3,2,2,1,0,5</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>265659.6261</v>
+        <v>246818.3641</v>
       </c>
       <c r="U11" t="n">
-        <v>46251.199616</v>
+        <v>41764.968896</v>
       </c>
       <c r="V11" t="n">
-        <v>31971.0776</v>
+        <v>32098.0776</v>
       </c>
       <c r="W11" t="n">
         <v>2300</v>
       </c>
       <c r="X11" t="n">
-        <v>1770</v>
+        <v>1070</v>
       </c>
       <c r="Y11" t="n">
         <v>15000</v>
@@ -8180,13 +8436,37 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
       </c>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="n">
+        <v>536050.791</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>28127.3046824</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>38885</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>732453.0956823999</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8210,13 +8490,13 @@
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H12" t="n">
         <v>25</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
@@ -8241,39 +8521,39 @@
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,0,0,5</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>265659.6261</v>
+        <v>255844.4951</v>
       </c>
       <c r="U12" t="n">
-        <v>46251.199616</v>
+        <v>44086.58425599999</v>
       </c>
       <c r="V12" t="n">
-        <v>31971.0776</v>
+        <v>32098.0776</v>
       </c>
       <c r="W12" t="n">
         <v>2300</v>
       </c>
       <c r="X12" t="n">
-        <v>1770</v>
+        <v>1420</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>2300</v>
+        <v>2370</v>
       </c>
       <c r="AA12" t="n">
         <v>3600</v>
       </c>
       <c r="AB12" t="n">
-        <v>1220</v>
+        <v>1290</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -8288,7 +8568,7 @@
         <v>25</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>5</v>
@@ -8298,6 +8578,30 @@
       </c>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="n">
+        <v>536050.791</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>53750.0816664</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>38885</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>758075.8726664</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8306,10 +8610,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -8324,13 +8628,13 @@
         <v>30</v>
       </c>
       <c r="H13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8342,10 +8646,10 @@
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -8356,17 +8660,17 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,0,6</t>
+          <t>5,3,3,3,4,2,1,0,10</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>392715.248796</v>
+        <v>264870.6261</v>
       </c>
       <c r="U13" t="n">
-        <v>68725.9384064</v>
+        <v>46408.199616</v>
       </c>
       <c r="V13" t="n">
-        <v>54548.0434</v>
+        <v>32098.0776</v>
       </c>
       <c r="W13" t="n">
         <v>2300</v>
@@ -8378,37 +8682,61 @@
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>2440</v>
+        <v>2370</v>
       </c>
       <c r="AA13" t="n">
         <v>3600</v>
       </c>
       <c r="AB13" t="n">
-        <v>1360</v>
+        <v>1290</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE13" t="n">
         <v>5000</v>
       </c>
       <c r="AF13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="n">
+        <v>536050.791</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>79372.8586504</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>38885</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>783698.6496503999</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8417,10 +8745,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8435,13 +8763,13 @@
         <v>30</v>
       </c>
       <c r="H14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8453,10 +8781,10 @@
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8467,17 +8795,17 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,4,2,0,0,5</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>392715.248796</v>
+        <v>264870.6261</v>
       </c>
       <c r="U14" t="n">
-        <v>68725.9384064</v>
+        <v>46408.199616</v>
       </c>
       <c r="V14" t="n">
-        <v>54548.0434</v>
+        <v>32098.0776</v>
       </c>
       <c r="W14" t="n">
         <v>2300</v>
@@ -8489,37 +8817,61 @@
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>2510</v>
+        <v>2300</v>
       </c>
       <c r="AA14" t="n">
         <v>3600</v>
       </c>
       <c r="AB14" t="n">
-        <v>1430</v>
+        <v>1220</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE14" t="n">
         <v>5000</v>
       </c>
       <c r="AF14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
       </c>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="n">
+        <v>536050.791</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>79372.8586504</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>38703</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>783516.6496503999</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8528,10 +8880,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8546,13 +8898,13 @@
         <v>30</v>
       </c>
       <c r="H15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="I15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -8564,10 +8916,10 @@
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -8578,17 +8930,17 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,4,2,2,0,6</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>936780.8202979999</v>
+        <v>395215.248796</v>
       </c>
       <c r="U15" t="n">
-        <v>168089.5277312</v>
+        <v>69533.9384064</v>
       </c>
       <c r="V15" t="n">
-        <v>156016.2</v>
+        <v>55322.0434</v>
       </c>
       <c r="W15" t="n">
         <v>2300</v>
@@ -8600,37 +8952,61 @@
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>2790</v>
+        <v>2440</v>
       </c>
       <c r="AA15" t="n">
         <v>3600</v>
       </c>
       <c r="AB15" t="n">
-        <v>1710</v>
+        <v>1360</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="AE15" t="n">
         <v>5000</v>
       </c>
       <c r="AF15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AG15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
       </c>
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="n">
+        <v>830550.77067</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>117870.95268016</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>111419.8</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1207330.67335016</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8639,10 +9015,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8657,13 +9033,13 @@
         <v>30</v>
       </c>
       <c r="H16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -8675,10 +9051,10 @@
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -8689,17 +9065,17 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>4926935.31222</v>
+        <v>395215.248796</v>
       </c>
       <c r="U16" t="n">
-        <v>867548.4573728</v>
+        <v>69533.9384064</v>
       </c>
       <c r="V16" t="n">
-        <v>780770.5862</v>
+        <v>55322.0434</v>
       </c>
       <c r="W16" t="n">
         <v>2300</v>
@@ -8711,37 +9087,61 @@
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>3350</v>
+        <v>2510</v>
       </c>
       <c r="AA16" t="n">
         <v>3600</v>
       </c>
       <c r="AB16" t="n">
-        <v>2270</v>
+        <v>1430</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="AE16" t="n">
         <v>5000</v>
       </c>
       <c r="AF16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
       </c>
       <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="n">
+        <v>830550.77067</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>117870.95268016</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>111601.8</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1207512.67335016</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8750,10 +9150,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8768,13 +9168,13 @@
         <v>30</v>
       </c>
       <c r="H17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="I17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -8786,10 +9186,10 @@
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -8800,17 +9200,17 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,3,3,3,8</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>8049611.85751</v>
+        <v>974275.8202979999</v>
       </c>
       <c r="U17" t="n">
-        <v>1418629.2348512</v>
+        <v>174946.5277312</v>
       </c>
       <c r="V17" t="n">
-        <v>1270298.0184</v>
+        <v>162649.2</v>
       </c>
       <c r="W17" t="n">
         <v>2300</v>
@@ -8822,70 +9222,94 @@
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>4260</v>
+        <v>2790</v>
       </c>
       <c r="AA17" t="n">
         <v>3600</v>
       </c>
       <c r="AB17" t="n">
-        <v>3180</v>
+        <v>1710</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AE17" t="n">
         <v>5000</v>
       </c>
       <c r="AF17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AG17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
       </c>
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="n">
+        <v>1917495.96896</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>258714.79268328</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>155697.55</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>685602</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>3131779.26164328</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>161</v>
+        <v>400</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -8897,106 +9321,130 @@
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,1,0,0,1</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>224115.2973665</v>
+        <v>5061812.31222</v>
       </c>
       <c r="U18" t="n">
-        <v>40109.9848032</v>
+        <v>891276.4573728</v>
       </c>
       <c r="V18" t="n">
-        <v>29037.688</v>
+        <v>802610.5862</v>
       </c>
       <c r="W18" t="n">
-        <v>1500</v>
+        <v>2300</v>
       </c>
       <c r="X18" t="n">
-        <v>400</v>
+        <v>1770</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>1270</v>
+        <v>3350</v>
       </c>
       <c r="AA18" t="n">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="AB18" t="n">
-        <v>670</v>
+        <v>2270</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="AE18" t="n">
         <v>5000</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="AH18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AI18" t="n">
         <v>0</v>
       </c>
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="n">
+        <v>11648273.12724</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1593634.86150232</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>2006045.6</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>15843226.23874232</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B19" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>500</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
         <v>10</v>
-      </c>
-      <c r="C19" t="n">
-        <v>200</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>5</v>
       </c>
       <c r="G19" t="n">
+        <v>30</v>
+      </c>
+      <c r="H19" t="n">
+        <v>160</v>
+      </c>
+      <c r="I19" t="n">
+        <v>150</v>
+      </c>
+      <c r="J19" t="n">
         <v>10</v>
-      </c>
-      <c r="H19" t="n">
-        <v>20</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -9008,73 +9456,97 @@
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="O19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,0,0,2</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>298725.959265</v>
+        <v>8359329.85751</v>
       </c>
       <c r="U19" t="n">
-        <v>53058.58504960001</v>
+        <v>1472662.2348512</v>
       </c>
       <c r="V19" t="n">
-        <v>39365.9944</v>
+        <v>1319530.0184</v>
       </c>
       <c r="W19" t="n">
         <v>2300</v>
       </c>
       <c r="X19" t="n">
-        <v>1070</v>
+        <v>1770</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>2300</v>
+        <v>4260</v>
       </c>
       <c r="AA19" t="n">
         <v>3600</v>
       </c>
       <c r="AB19" t="n">
-        <v>1220</v>
+        <v>3180</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="AE19" t="n">
         <v>5000</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="AG19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH19" t="n">
         <v>10</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>2</v>
       </c>
       <c r="AI19" t="n">
         <v>0</v>
       </c>
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="n">
+        <v>18893495.49241</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>2590193.14137328</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1061573.2</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>3467427.6</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>26126958.38378328</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -9083,31 +9555,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>15</v>
+      </c>
+      <c r="I20" t="n">
         <v>5</v>
       </c>
-      <c r="G20" t="n">
-        <v>20</v>
-      </c>
-      <c r="H20" t="n">
-        <v>25</v>
-      </c>
-      <c r="I20" t="n">
-        <v>15</v>
-      </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9119,73 +9591,97 @@
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,1,0,0,1</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>382376.0989</v>
+        <v>213115.2973665</v>
       </c>
       <c r="U20" t="n">
-        <v>66970.9783776</v>
+        <v>38169.9848032</v>
       </c>
       <c r="V20" t="n">
-        <v>54236.8072</v>
+        <v>28286.688</v>
       </c>
       <c r="W20" t="n">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="X20" t="n">
-        <v>1420</v>
+        <v>300</v>
       </c>
       <c r="Y20" t="n">
         <v>15000</v>
       </c>
       <c r="Z20" t="n">
-        <v>2370</v>
+        <v>970</v>
       </c>
       <c r="AA20" t="n">
-        <v>3600</v>
+        <v>1500</v>
       </c>
       <c r="AB20" t="n">
-        <v>1290</v>
+        <v>520</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="AE20" t="n">
         <v>5000</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
       </c>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="n">
+        <v>561246.12956</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>2748.31894858</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>14696.9</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>32753.8</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>644291.1485085801</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9194,31 +9690,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
         <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9230,73 +9726,97 @@
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,2,2,0,0,2</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>437120.751442</v>
+        <v>275625.959265</v>
       </c>
       <c r="U21" t="n">
-        <v>79761.9769472</v>
+        <v>48984.58504960001</v>
       </c>
       <c r="V21" t="n">
-        <v>62641.1413</v>
+        <v>37789.1944</v>
       </c>
       <c r="W21" t="n">
-        <v>2300</v>
+        <v>1250</v>
       </c>
       <c r="X21" t="n">
-        <v>1770</v>
+        <v>800</v>
       </c>
       <c r="Y21" t="n">
         <v>15000</v>
       </c>
       <c r="Z21" t="n">
-        <v>2510</v>
+        <v>1490</v>
       </c>
       <c r="AA21" t="n">
-        <v>3600</v>
+        <v>2250</v>
       </c>
       <c r="AB21" t="n">
-        <v>1430</v>
+        <v>815</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AE21" t="n">
         <v>5000</v>
       </c>
       <c r="AF21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AI21" t="n">
         <v>0</v>
       </c>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="n">
+        <v>669691.90628</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>49269</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>35398.60762724</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>19028.1</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>65507.60000000001</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>838895.2139072401</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -9305,10 +9825,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -9320,16 +9840,16 @@
         <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9341,73 +9861,97 @@
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>502174.2812</v>
+        <v>382376.0989</v>
       </c>
       <c r="U22" t="n">
-        <v>96355.6511744</v>
+        <v>66970.9783776</v>
       </c>
       <c r="V22" t="n">
-        <v>77152.6182</v>
+        <v>54236.8072</v>
       </c>
       <c r="W22" t="n">
         <v>2300</v>
       </c>
       <c r="X22" t="n">
-        <v>1770</v>
+        <v>1420</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>2790</v>
+        <v>2370</v>
       </c>
       <c r="AA22" t="n">
         <v>3600</v>
       </c>
       <c r="AB22" t="n">
-        <v>1710</v>
+        <v>1290</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AE22" t="n">
         <v>5000</v>
       </c>
       <c r="AF22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AG22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AI22" t="n">
         <v>0</v>
       </c>
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="n">
+        <v>854548.1929800001</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>82218.24812544</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>23382.7</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>95389.39999999999</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1169807.49110544</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9416,10 +9960,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -9434,13 +9978,13 @@
         <v>30</v>
       </c>
       <c r="H23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9452,10 +9996,10 @@
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9466,17 +10010,17 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>635544.72619</v>
+        <v>437120.751442</v>
       </c>
       <c r="U23" t="n">
-        <v>130452.2597536</v>
+        <v>79761.9769472</v>
       </c>
       <c r="V23" t="n">
-        <v>106486.8086</v>
+        <v>62641.1413</v>
       </c>
       <c r="W23" t="n">
         <v>2300</v>
@@ -9488,37 +10032,331 @@
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>3350</v>
+        <v>2510</v>
       </c>
       <c r="AA23" t="n">
         <v>3600</v>
       </c>
       <c r="AB23" t="n">
-        <v>2270</v>
+        <v>1430</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="AE23" t="n">
         <v>5000</v>
       </c>
       <c r="AF23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI23" t="n">
         <v>0</v>
       </c>
       <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="n">
+        <v>934288.8610350001</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>131431.99381768</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>30363.65</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>151723</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1362076.45485268</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>15</v>
+      </c>
+      <c r="C24" t="n">
+        <v>300</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>30</v>
+      </c>
+      <c r="H24" t="n">
+        <v>55</v>
+      </c>
+      <c r="I24" t="n">
+        <v>45</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>42</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>15</v>
+      </c>
+      <c r="O24" t="n">
+        <v>270</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>30</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>502174.2812</v>
+      </c>
+      <c r="U24" t="n">
+        <v>96355.6511744</v>
+      </c>
+      <c r="V24" t="n">
+        <v>77152.6182</v>
+      </c>
+      <c r="W24" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1770</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>2790</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1710</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="n">
+        <v>1060142.01797</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>147393.11098336</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>43173.05</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>260818.2</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1625795.32895336</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>16</v>
+      </c>
+      <c r="C25" t="n">
+        <v>400</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>30</v>
+      </c>
+      <c r="H25" t="n">
+        <v>95</v>
+      </c>
+      <c r="I25" t="n">
+        <v>85</v>
+      </c>
+      <c r="J25" t="n">
+        <v>10</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>42</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>16</v>
+      </c>
+      <c r="O25" t="n">
+        <v>280</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>30</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>635544.72619</v>
+      </c>
+      <c r="U25" t="n">
+        <v>130452.2597536</v>
+      </c>
+      <c r="V25" t="n">
+        <v>106486.8086</v>
+      </c>
+      <c r="W25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1770</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>3350</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>2270</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="n">
+        <v>1321515.74128</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>181006.22665984</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>479008.6</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>2164559.96793984</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/opm_hero_property/heroes/42.xlsx
+++ b/opm_hero_property/heroes/42.xlsx
@@ -997,87 +997,87 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,64950;31,12281;41,4149</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,194851;31,0;41,0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,7880;31,1463;41,602</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,23641;31,0;41,0</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>64950.6375</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>12281.2725</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>4149.3464</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>194851.9125</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>7880.355</v>
       </c>
       <c r="X2" t="n">
-        <v>1</v>
+        <v>1463.5425</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>602.076</v>
       </c>
       <c r="Z2" t="n">
-        <v>1</v>
+        <v>23641.065</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1104,87 +1104,87 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,64957;31,12282;41,4150</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,194871;31,0;41,0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,7886;31,1465;41,602</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,23660;31,0;41,0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>64957.2</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>12282.9525</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>4150.1324</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>194871.6</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>7886.9175</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>1465.2225</v>
       </c>
       <c r="Y3" t="n">
-        <v>1</v>
+        <v>602.8620000000001</v>
       </c>
       <c r="Z3" t="n">
-        <v>1</v>
+        <v>23660.7525</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1211,87 +1211,87 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,69511;31,13431;41,4900</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,208533;31,0;41,0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,8377;31,1588;41,685</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,25132;31,0;41,0</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>69511.121736</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>13431.13574775</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>4900.221563880001</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>208533.365208</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>1</v>
+        <v>8377.435121999999</v>
       </c>
       <c r="X4" t="n">
-        <v>1</v>
+        <v>1588.96671675</v>
       </c>
       <c r="Y4" t="n">
-        <v>1</v>
+        <v>685.7096016400001</v>
       </c>
       <c r="Z4" t="n">
-        <v>1</v>
+        <v>25132.305366</v>
       </c>
       <c r="AA4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1318,87 +1318,87 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,74665;31,14731;41,5749</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,223996;31,0;41,0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,8931;31,1728;41,779</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,26795;31,0;41,0</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>74665.344579</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>14731.803765</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>5749.95849776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>223996.033737</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>8931.7931955</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>1728.892305</v>
       </c>
       <c r="Y5" t="n">
-        <v>1</v>
+        <v>779.52321328</v>
       </c>
       <c r="Z5" t="n">
-        <v>1</v>
+        <v>26795.3795865</v>
       </c>
       <c r="AA5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1425,87 +1425,87 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>21,53822;31,10840;41,4508</t>
+          <t>21,80733;31,16261;41,6749</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>21,53822;31,10840;41,4508</t>
+          <t>21,242200;31,0;41,0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>21,26911;31,5420;41,2254</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>21,6389;31,1262;41,594</t>
+          <t>21,9584;31,1893;41,889</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>21,6389;31,1262;41,594</t>
+          <t>21,28752;31,0;41,0</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>21,3194;31,631;41,297</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>53822</v>
+        <v>80733.65881349999</v>
       </c>
       <c r="O6" t="n">
-        <v>10840</v>
+        <v>16261.4876865</v>
       </c>
       <c r="P6" t="n">
-        <v>4508</v>
+        <v>6749.9376496</v>
       </c>
       <c r="Q6" t="n">
-        <v>53822</v>
+        <v>242200.9764405</v>
       </c>
       <c r="R6" t="n">
-        <v>10840</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>4508</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>26911</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>5420</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>2254</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>6389</v>
+        <v>9584.13762075</v>
       </c>
       <c r="X6" t="n">
-        <v>1262</v>
+        <v>1893.3787005</v>
       </c>
       <c r="Y6" t="n">
-        <v>594</v>
+        <v>889.8469488</v>
       </c>
       <c r="Z6" t="n">
-        <v>6389</v>
+        <v>28752.41286225</v>
       </c>
       <c r="AA6" t="n">
-        <v>1262</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>594</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>3194</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>631</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1532,87 +1532,87 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>21,60373;31,12015;41,5903</t>
+          <t>21,90560;31,18023;41,8838</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>21,60373;31,12015;41,5903</t>
+          <t>21,271682;31,0;41,0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>21,30186;31,6007;41,2951</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>21,7100;31,1390;41,749</t>
+          <t>21,10651;31,2085;41,1121</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>21,7100;31,1390;41,749</t>
+          <t>21,31953;31,0;41,0</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>21,3550;31,695;41,374</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>60373</v>
+        <v>90560.877981</v>
       </c>
       <c r="O7" t="n">
-        <v>12015</v>
+        <v>18023.9706255</v>
       </c>
       <c r="P7" t="n">
-        <v>5903</v>
+        <v>8838.524715919999</v>
       </c>
       <c r="Q7" t="n">
-        <v>60373</v>
+        <v>271682.633943</v>
       </c>
       <c r="R7" t="n">
-        <v>12015</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>5903</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>30186</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>6007</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>2951</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>7100</v>
+        <v>10651.0684245</v>
       </c>
       <c r="X7" t="n">
-        <v>1390</v>
+        <v>2085.1272435</v>
       </c>
       <c r="Y7" t="n">
-        <v>749</v>
+        <v>1121.79268776</v>
       </c>
       <c r="Z7" t="n">
-        <v>7100</v>
+        <v>31953.2052735</v>
       </c>
       <c r="AA7" t="n">
-        <v>1390</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>749</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>3550</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>695</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1639,87 +1639,87 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>21,68850;31,13342;41,7832</t>
+          <t>21,103275;31,20014;41,11726</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>21,68850;31,13342;41,7832</t>
+          <t>21,309826;31,0;41,0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>21,34425;31,6671;41,3916</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>21,8017;31,1533;41,963</t>
+          <t>21,12025;31,2300;41,1441</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>21,8017;31,1533;41,963</t>
+          <t>21,36077;31,0;41,0</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>21,4008;31,766;41,481</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>68850</v>
+        <v>103275.6388545</v>
       </c>
       <c r="O8" t="n">
-        <v>13342</v>
+        <v>20014.47196875</v>
       </c>
       <c r="P8" t="n">
-        <v>7832</v>
+        <v>11726.73663112</v>
       </c>
       <c r="Q8" t="n">
-        <v>68850</v>
+        <v>309826.9165635</v>
       </c>
       <c r="R8" t="n">
-        <v>13342</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>7832</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>34425</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>6671</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>3916</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>8017</v>
+        <v>12025.96416525</v>
       </c>
       <c r="X8" t="n">
-        <v>1533</v>
+        <v>2300.43909375</v>
       </c>
       <c r="Y8" t="n">
-        <v>963</v>
+        <v>1441.78083336</v>
       </c>
       <c r="Z8" t="n">
-        <v>8017</v>
+        <v>36077.89249575</v>
       </c>
       <c r="AA8" t="n">
-        <v>1533</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>963</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>4008</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>766</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1746,87 +1746,87 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>21,79745;31,14873;41,10429</t>
+          <t>21,119617;31,22310;41,15614</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>21,79745;31,14873;41,10429</t>
+          <t>21,358853;31,0;41,0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>21,39872;31,7436;41,5214</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>21,9191;31,1698;41,1250</t>
+          <t>21,13786;31,2547;41,1871</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>21,9191;31,1698;41,1250</t>
+          <t>21,41359;31,0;41,0</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>21,4595;31,849;41,625</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>79745</v>
+        <v>119617.700832</v>
       </c>
       <c r="O9" t="n">
-        <v>14873</v>
+        <v>22310.47096425</v>
       </c>
       <c r="P9" t="n">
-        <v>10429</v>
+        <v>15614.35129816</v>
       </c>
       <c r="Q9" t="n">
-        <v>79745</v>
+        <v>358853.1024960001</v>
       </c>
       <c r="R9" t="n">
-        <v>14873</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>10429</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>39872</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>7436</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>5214</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>9191</v>
+        <v>13786.568964</v>
       </c>
       <c r="X9" t="n">
-        <v>1698</v>
+        <v>2547.56002725</v>
       </c>
       <c r="Y9" t="n">
-        <v>1250</v>
+        <v>1871.51631448</v>
       </c>
       <c r="Z9" t="n">
-        <v>9191</v>
+        <v>41359.706892</v>
       </c>
       <c r="AA9" t="n">
-        <v>1698</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>4595</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>849</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1853,87 +1853,87 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>21,87910;31,15689;41,12591</t>
+          <t>21,131866;31,23533;41,18851</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>21,87910;31,15689;41,12591</t>
+          <t>21,395598;31,0;41,0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>21,43955;31,7844;41,6295</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>21,10070;31,1786;41,1489</t>
+          <t>21,15106;31,2679;41,2229</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>21,10070;31,1786;41,1489</t>
+          <t>21,45318;31,0;41,0</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>21,5035;31,893;41,744</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>87910</v>
+        <v>131866.2638895</v>
       </c>
       <c r="O10" t="n">
-        <v>15689</v>
+        <v>23533.5547335</v>
       </c>
       <c r="P10" t="n">
-        <v>12591</v>
+        <v>18851.9229528</v>
       </c>
       <c r="Q10" t="n">
-        <v>87910</v>
+        <v>395598.7916685001</v>
       </c>
       <c r="R10" t="n">
-        <v>15689</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>12591</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>43955</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>7844</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>6295</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>10070</v>
+        <v>15106.17292275</v>
       </c>
       <c r="X10" t="n">
-        <v>1786</v>
+        <v>2679.1348395</v>
       </c>
       <c r="Y10" t="n">
-        <v>1489</v>
+        <v>2229.4138584</v>
       </c>
       <c r="Z10" t="n">
-        <v>10070</v>
+        <v>45318.51876825</v>
       </c>
       <c r="AA10" t="n">
-        <v>1786</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>1489</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>5035</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>893</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1960,87 +1960,87 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>21,97870;31,16658;41,15246</t>
+          <t>21,146805;31,24987;41,22826</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>21,97870;31,16658;41,15246</t>
+          <t>21,440415;31,0;41,0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>21,48935;31,8329;41,7623</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>21,11142;31,1890;41,1782</t>
+          <t>21,16713;31,2835;41,2668</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>21,11142;31,1890;41,1782</t>
+          <t>21,50140;31,0;41,0</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>21,5571;31,945;41,891</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>97870</v>
+        <v>146805.1146975</v>
       </c>
       <c r="O11" t="n">
-        <v>16658</v>
+        <v>24987.8656335</v>
       </c>
       <c r="P11" t="n">
-        <v>15246</v>
+        <v>22826.86714544</v>
       </c>
       <c r="Q11" t="n">
-        <v>97870</v>
+        <v>440415.3440925</v>
       </c>
       <c r="R11" t="n">
-        <v>16658</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>15246</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>48935</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>8329</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>7623</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>11142</v>
+        <v>16713.40573875</v>
       </c>
       <c r="X11" t="n">
-        <v>1890</v>
+        <v>2835.3181395</v>
       </c>
       <c r="Y11" t="n">
-        <v>1782</v>
+        <v>2668.43891632</v>
       </c>
       <c r="Z11" t="n">
-        <v>11142</v>
+        <v>50140.21721625</v>
       </c>
       <c r="AA11" t="n">
-        <v>1890</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>1782</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>5571</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>945</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2067,87 +2067,87 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>21,116220;31,18697;41,19971</t>
+          <t>21,174331;31,28046;41,29900</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>21,116220;31,18697;41,19971</t>
+          <t>21,522994;31,0;41,0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>21,58110;31,9348;41,9985</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>21,13114;31,2109;41,2303</t>
+          <t>21,19671;31,3163;41,3448</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>21,13114;31,2109;41,2303</t>
+          <t>21,59013;31,0;41,0</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>21,6557;31,1054;41,1151</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>116220</v>
+        <v>174331.48005</v>
       </c>
       <c r="O12" t="n">
-        <v>18697</v>
+        <v>28046.5509765</v>
       </c>
       <c r="P12" t="n">
-        <v>19971</v>
+        <v>29900.12820064</v>
       </c>
       <c r="Q12" t="n">
-        <v>116220</v>
+        <v>522994.44015</v>
       </c>
       <c r="R12" t="n">
-        <v>18697</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>19971</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>58110</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>9348</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>9985</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>13114</v>
+        <v>19671.014475</v>
       </c>
       <c r="X12" t="n">
-        <v>2109</v>
+        <v>3163.6084305</v>
       </c>
       <c r="Y12" t="n">
-        <v>2303</v>
+        <v>3448.84228192</v>
       </c>
       <c r="Z12" t="n">
-        <v>13114</v>
+        <v>59013.043425</v>
       </c>
       <c r="AA12" t="n">
-        <v>2109</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>2303</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>6557</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>1054</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>1151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2174,87 +2174,87 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>21,119062;31,19107;41,20641</t>
+          <t>21,178593;31,28661;41,30902</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>21,119062;31,19107;41,20641</t>
+          <t>21,535779;31,0;41,0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>21,59531;31,9553;41,10320</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>21,13428;31,2154;41,2379</t>
+          <t>21,20143;31,3231;41,3561</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>21,13428;31,2154;41,2379</t>
+          <t>21,60429;31,0;41,0</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>21,6714;31,1077;41,1189</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>119062</v>
+        <v>178593.223242</v>
       </c>
       <c r="O13" t="n">
-        <v>19107</v>
+        <v>28661.00816775</v>
       </c>
       <c r="P13" t="n">
-        <v>20641</v>
+        <v>30902.77975248</v>
       </c>
       <c r="Q13" t="n">
-        <v>119062</v>
+        <v>535779.6697260001</v>
       </c>
       <c r="R13" t="n">
-        <v>19107</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>20641</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>59531</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>9553</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>10320</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>13428</v>
+        <v>20143.290909</v>
       </c>
       <c r="X13" t="n">
-        <v>2154</v>
+        <v>3231.77025675</v>
       </c>
       <c r="Y13" t="n">
-        <v>2379</v>
+        <v>3561.83841744</v>
       </c>
       <c r="Z13" t="n">
-        <v>13428</v>
+        <v>60429.872727</v>
       </c>
       <c r="AA13" t="n">
-        <v>2154</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>2379</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>6714</v>
+        <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>1077</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>1189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2281,87 +2281,87 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>21,121903;31,19516;41,21310</t>
+          <t>21,182854;31,29275;41,31905</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>21,121903;31,19516;41,21310</t>
+          <t>21,548564;31,0;41,0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>21,60951;31,9758;41,10655</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>21,13743;31,2199;41,2454</t>
+          <t>21,20615;31,3299;41,3674</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>21,13743;31,2199;41,2454</t>
+          <t>21,61846;31,0;41,0</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>21,6871;31,1099;41,1227</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>121903</v>
+        <v>182854.966434</v>
       </c>
       <c r="O14" t="n">
-        <v>19516</v>
+        <v>29275.465359</v>
       </c>
       <c r="P14" t="n">
-        <v>21310</v>
+        <v>31905.03292284</v>
       </c>
       <c r="Q14" t="n">
-        <v>121903</v>
+        <v>548564.8993019999</v>
       </c>
       <c r="R14" t="n">
-        <v>19516</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>21310</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>60951</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>9758</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>10655</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>13743</v>
+        <v>20615.567343</v>
       </c>
       <c r="X14" t="n">
-        <v>2199</v>
+        <v>3299.932083</v>
       </c>
       <c r="Y14" t="n">
-        <v>2454</v>
+        <v>3674.79089852</v>
       </c>
       <c r="Z14" t="n">
-        <v>13743</v>
+        <v>61846.702029</v>
       </c>
       <c r="AA14" t="n">
-        <v>2199</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>2454</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>6871</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>1099</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>1227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2388,87 +2388,87 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>21,124744;31,19926;41,21980</t>
+          <t>21,187116;31,29889;41,32907</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>21,124744;31,19926;41,21980</t>
+          <t>21,561350;31,0;41,0</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>21,62372;31,9963;41,10990</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>21,14058;31,2245;41,2530</t>
+          <t>21,21087;31,3368;41,3787</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>21,14058;31,2245;41,2530</t>
+          <t>21,63263;31,0;41,0</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>21,7029;31,1122;41,1265</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>124744</v>
+        <v>187116.709626</v>
       </c>
       <c r="O15" t="n">
-        <v>19926</v>
+        <v>29889.97505025</v>
       </c>
       <c r="P15" t="n">
-        <v>21980</v>
+        <v>32907.68447468</v>
       </c>
       <c r="Q15" t="n">
-        <v>124744</v>
+        <v>561350.128878</v>
       </c>
       <c r="R15" t="n">
-        <v>19926</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>21980</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>62372</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>9963</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>10990</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>14058</v>
+        <v>21087.843777</v>
       </c>
       <c r="X15" t="n">
-        <v>2245</v>
+        <v>3368.14640925</v>
       </c>
       <c r="Y15" t="n">
-        <v>2530</v>
+        <v>3787.78703404</v>
       </c>
       <c r="Z15" t="n">
-        <v>14058</v>
+        <v>63263.53133100001</v>
       </c>
       <c r="AA15" t="n">
-        <v>2245</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>2530</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>7029</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>1122</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>1265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2495,87 +2495,87 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>21,127585;31,20336;41,22649</t>
+          <t>21,191378;31,30504;41,33909</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>21,127585;31,20336;41,22649</t>
+          <t>21,574135;31,0;41,0</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>21,63792;31,10168;41,11324</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>21,14373;31,2290;41,2605</t>
+          <t>21,21560;31,3436;41,3900</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>21,14373;31,2290;41,2605</t>
+          <t>21,64680;31,0;41,0</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>21,7186;31,1145;41,1302</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>127585</v>
+        <v>191378.452818</v>
       </c>
       <c r="O16" t="n">
-        <v>20336</v>
+        <v>30504.4322415</v>
       </c>
       <c r="P16" t="n">
-        <v>22649</v>
+        <v>33909.93764504</v>
       </c>
       <c r="Q16" t="n">
-        <v>127585</v>
+        <v>574135.358454</v>
       </c>
       <c r="R16" t="n">
-        <v>20336</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>22649</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>63792</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>10168</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>11324</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>14373</v>
+        <v>21560.120211</v>
       </c>
       <c r="X16" t="n">
-        <v>2290</v>
+        <v>3436.3082355</v>
       </c>
       <c r="Y16" t="n">
-        <v>2605</v>
+        <v>3900.73951512</v>
       </c>
       <c r="Z16" t="n">
-        <v>14373</v>
+        <v>64680.360633</v>
       </c>
       <c r="AA16" t="n">
-        <v>2290</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>2605</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>7186</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>1145</v>
+        <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>1302</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2602,87 +2602,87 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>21,130426;31,20745;41,23319</t>
+          <t>21,195640;31,31118;41,34912</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>21,130426;31,20745;41,23319</t>
+          <t>21,586920;31,0;41,0</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>21,65213;31,10372;41,11659</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>21,14688;31,2336;41,2680</t>
+          <t>21,22032;31,3504;41,4013</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>21,14688;31,2336;41,2680</t>
+          <t>21,66097;31,0;41,0</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>21,7344;31,1168;41,1340</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>130426</v>
+        <v>195640.19601</v>
       </c>
       <c r="O17" t="n">
-        <v>20745</v>
+        <v>31118.88943275</v>
       </c>
       <c r="P17" t="n">
-        <v>23319</v>
+        <v>34912.58919688</v>
       </c>
       <c r="Q17" t="n">
-        <v>130426</v>
+        <v>586920.58803</v>
       </c>
       <c r="R17" t="n">
-        <v>20745</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>23319</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>65213</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>10372</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>11659</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>14688</v>
+        <v>22032.396645</v>
       </c>
       <c r="X17" t="n">
-        <v>2336</v>
+        <v>3504.47006175</v>
       </c>
       <c r="Y17" t="n">
-        <v>2680</v>
+        <v>4013.73565064</v>
       </c>
       <c r="Z17" t="n">
-        <v>14688</v>
+        <v>66097.189935</v>
       </c>
       <c r="AA17" t="n">
-        <v>2336</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>2680</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>7344</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>1168</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>1340</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5447,141 +5447,141 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7620</v>
+        <v>10955</v>
       </c>
       <c r="C2" t="n">
-        <v>1356</v>
+        <v>1742</v>
       </c>
       <c r="D2" t="n">
-        <v>958</v>
+        <v>1958</v>
       </c>
       <c r="E2" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G2" t="n">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="H2" t="n">
-        <v>7620</v>
+        <v>22691</v>
       </c>
       <c r="I2" t="n">
-        <v>1356</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>958</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="L2" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3810</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>678</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>479</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>5003</v>
+        <v>5588</v>
       </c>
       <c r="U2" t="n">
-        <v>874</v>
+        <v>987</v>
       </c>
       <c r="V2" t="n">
-        <v>727</v>
+        <v>767</v>
       </c>
       <c r="W2" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="X2" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="Y2" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="Z2" t="n">
-        <v>5003</v>
+        <v>11575</v>
       </c>
       <c r="AA2" t="n">
-        <v>874</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>727</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="AD2" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>2501</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>437</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>363</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>21,7620;31,1356;41,958;22,40;32,40;42,40</t>
+          <t>21,10955;31,1742;41,1958;22,60;32,60;42,59</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>21,7620;31,1356;41,958;22,40;32,40;42,40</t>
+          <t>21,22691;31,0;41,0;22,180;32,0;42,0</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>21,3810;31,678;41,479;22,20;32,20;42,20</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>21,5003;31,874;41,727;22,35;32,35;42,35</t>
+          <t>21,5588;31,987;41,767;22,52;32,52;42,52</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>21,5003;31,874;41,727;22,35;32,35;42,35</t>
+          <t>21,11575;31,0;41,0;22,157;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>21,2501;31,437;41,363;22,17;32,17;42,17</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -5590,141 +5590,141 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15354</v>
+        <v>21911</v>
       </c>
       <c r="C3" t="n">
-        <v>2599</v>
+        <v>3485</v>
       </c>
       <c r="D3" t="n">
-        <v>2068</v>
+        <v>3917</v>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="F3" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G3" t="n">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="H3" t="n">
-        <v>15354</v>
+        <v>45383</v>
       </c>
       <c r="I3" t="n">
-        <v>2599</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2068</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="L3" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>7677</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1299</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1034</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>5241</v>
+        <v>6448</v>
       </c>
       <c r="U3" t="n">
-        <v>915</v>
+        <v>1091</v>
       </c>
       <c r="V3" t="n">
-        <v>768</v>
+        <v>960</v>
       </c>
       <c r="W3" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="X3" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="Y3" t="n">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="Z3" t="n">
-        <v>5241</v>
+        <v>13355</v>
       </c>
       <c r="AA3" t="n">
-        <v>915</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>768</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>70</v>
+        <v>315</v>
       </c>
       <c r="AD3" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>2620</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>457</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>384</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>21,15354;31,2599;41,2068;22,80;32,80;42,80</t>
+          <t>21,21911;31,3485;41,3917;22,120;32,120;42,119</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>21,15354;31,2599;41,2068;22,80;32,80;42,80</t>
+          <t>21,45383;31,0;41,0;22,360;32,0;42,0</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>21,7677;31,1299;41,1034;22,40;32,40;42,40</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>21,5241;31,915;41,768;22,70;32,70;42,70</t>
+          <t>21,6448;31,1091;41,960;22,105;32,105;42,104</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>21,5241;31,915;41,768;22,70;32,70;42,70</t>
+          <t>21,13355;31,0;41,0;22,315;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>21,2620;31,457;41,384;22,35;32,35;42,35</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -5733,141 +5733,141 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>22978</v>
+        <v>32867</v>
       </c>
       <c r="C4" t="n">
-        <v>3696</v>
+        <v>5227</v>
       </c>
       <c r="D4" t="n">
-        <v>3386</v>
+        <v>5876</v>
       </c>
       <c r="E4" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="F4" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="G4" t="n">
-        <v>120</v>
+        <v>179</v>
       </c>
       <c r="H4" t="n">
-        <v>22978</v>
+        <v>68075</v>
       </c>
       <c r="I4" t="n">
-        <v>3696</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3386</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>120</v>
+        <v>540</v>
       </c>
       <c r="L4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>11489</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1848</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1693</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>5490</v>
+        <v>7909</v>
       </c>
       <c r="U4" t="n">
-        <v>959</v>
+        <v>1271</v>
       </c>
       <c r="V4" t="n">
-        <v>812</v>
+        <v>1299</v>
       </c>
       <c r="W4" t="n">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="X4" t="n">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="Y4" t="n">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="Z4" t="n">
-        <v>5490</v>
+        <v>16383</v>
       </c>
       <c r="AA4" t="n">
-        <v>959</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>812</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>105</v>
+        <v>472</v>
       </c>
       <c r="AD4" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>2745</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>479</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>406</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>21,22978;31,3696;41,3386;22,120;32,120;42,120</t>
+          <t>21,32867;31,5227;41,5876;22,180;32,180;42,179</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>21,22978;31,3696;41,3386;22,120;32,120;42,120</t>
+          <t>21,68075;31,0;41,0;22,540;32,0;42,0</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>21,11489;31,1848;41,1693;22,60;32,60;42,60</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>21,5490;31,959;41,812;22,105;32,105;42,105</t>
+          <t>21,7909;31,1271;41,1299;22,157;32,157;42,157</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>21,5490;31,959;41,812;22,105;32,105;42,105</t>
+          <t>21,16383;31,0;41,0;22,472;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>21,2745;31,479;41,406;22,52;32,52;42,52</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -5876,141 +5876,141 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>30572</v>
+        <v>43823</v>
       </c>
       <c r="C5" t="n">
-        <v>4904</v>
+        <v>6970</v>
       </c>
       <c r="D5" t="n">
-        <v>4562</v>
+        <v>7834</v>
       </c>
       <c r="E5" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="F5" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="G5" t="n">
-        <v>160</v>
+        <v>239</v>
       </c>
       <c r="H5" t="n">
-        <v>30572</v>
+        <v>90767</v>
       </c>
       <c r="I5" t="n">
-        <v>4904</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>4562</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>160</v>
+        <v>720</v>
       </c>
       <c r="L5" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>15286</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2452</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2281</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>5881</v>
+        <v>8482</v>
       </c>
       <c r="U5" t="n">
-        <v>1026</v>
+        <v>1360</v>
       </c>
       <c r="V5" t="n">
-        <v>883</v>
+        <v>1416</v>
       </c>
       <c r="W5" t="n">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="X5" t="n">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="Y5" t="n">
-        <v>140</v>
+        <v>209</v>
       </c>
       <c r="Z5" t="n">
-        <v>5881</v>
+        <v>17569</v>
       </c>
       <c r="AA5" t="n">
-        <v>1026</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>883</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>140</v>
+        <v>630</v>
       </c>
       <c r="AD5" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>2940</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>513</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>441</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>21,30572;31,4904;41,4562;22,160;32,160;42,160</t>
+          <t>21,43823;31,6970;41,7834;22,240;32,240;42,239</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>21,30572;31,4904;41,4562;22,160;32,160;42,160</t>
+          <t>21,90767;31,0;41,0;22,720;32,0;42,0</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>21,15286;31,2452;41,2281;22,80;32,80;42,80</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>21,5881;31,1026;41,883;22,140;32,140;42,140</t>
+          <t>21,8482;31,1360;41,1416;22,210;32,210;42,209</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>21,5881;31,1026;41,883;22,140;32,140;42,140</t>
+          <t>21,17569;31,0;41,0;22,630;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>21,2940;31,513;41,441;22,70;32,70;42,70</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -6019,141 +6019,141 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>38140</v>
+        <v>54779</v>
       </c>
       <c r="C6" t="n">
-        <v>6103</v>
+        <v>8712</v>
       </c>
       <c r="D6" t="n">
-        <v>5762</v>
+        <v>9793</v>
       </c>
       <c r="E6" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F6" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G6" t="n">
-        <v>200</v>
+        <v>299</v>
       </c>
       <c r="H6" t="n">
-        <v>38140</v>
+        <v>113459</v>
       </c>
       <c r="I6" t="n">
-        <v>6103</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>5762</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="L6" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>19070</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>3051</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2881</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>6161</v>
+        <v>9093</v>
       </c>
       <c r="U6" t="n">
-        <v>1075</v>
+        <v>1455</v>
       </c>
       <c r="V6" t="n">
-        <v>932</v>
+        <v>1541</v>
       </c>
       <c r="W6" t="n">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="X6" t="n">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="Y6" t="n">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="Z6" t="n">
-        <v>6161</v>
+        <v>18833</v>
       </c>
       <c r="AA6" t="n">
-        <v>1075</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>932</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>175</v>
+        <v>787</v>
       </c>
       <c r="AD6" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>3080</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>537</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>466</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>21,38140;31,6103;41,5762;22,200;32,200;42,200</t>
+          <t>21,54779;31,8712;41,9793;22,300;32,300;42,299</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>21,38140;31,6103;41,5762;22,200;32,200;42,200</t>
+          <t>21,113459;31,0;41,0;22,900;32,0;42,0</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>21,19070;31,3051;41,2881;22,100;32,100;42,100</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>21,6161;31,1075;41,932;22,175;32,175;42,175</t>
+          <t>21,9093;31,1455;41,1541;22,262;32,262;42,262</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>21,6161;31,1075;41,932;22,175;32,175;42,175</t>
+          <t>21,18833;31,0;41,0;22,787;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>21,3080;31,537;41,466;22,87;32,87;42,87</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -6162,141 +6162,141 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>44476</v>
+        <v>65735</v>
       </c>
       <c r="C7" t="n">
-        <v>7103</v>
+        <v>10455</v>
       </c>
       <c r="D7" t="n">
-        <v>7478</v>
+        <v>11752</v>
       </c>
       <c r="E7" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="F7" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="G7" t="n">
-        <v>240</v>
+        <v>359</v>
       </c>
       <c r="H7" t="n">
-        <v>44476</v>
+        <v>136150</v>
       </c>
       <c r="I7" t="n">
-        <v>7103</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>7478</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>240</v>
+        <v>1080</v>
       </c>
       <c r="L7" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>22238</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>3551</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>3739</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>6454</v>
+        <v>9742</v>
       </c>
       <c r="U7" t="n">
-        <v>1126</v>
+        <v>1556</v>
       </c>
       <c r="V7" t="n">
-        <v>984</v>
+        <v>1677</v>
       </c>
       <c r="W7" t="n">
-        <v>210</v>
+        <v>315</v>
       </c>
       <c r="X7" t="n">
-        <v>210</v>
+        <v>315</v>
       </c>
       <c r="Y7" t="n">
-        <v>210</v>
+        <v>314</v>
       </c>
       <c r="Z7" t="n">
-        <v>6454</v>
+        <v>20178</v>
       </c>
       <c r="AA7" t="n">
-        <v>1126</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>984</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>210</v>
+        <v>945</v>
       </c>
       <c r="AD7" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>3227</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>563</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>492</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>21,44476;31,7103;41,7478;22,240;32,240;42,240</t>
+          <t>21,65735;31,10455;41,11752;22,360;32,360;42,359</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>21,44476;31,7103;41,7478;22,240;32,240;42,240</t>
+          <t>21,136150;31,0;41,0;22,1080;32,0;42,0</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>21,22238;31,3551;41,3739;22,120;32,120;42,120</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>21,6454;31,1126;41,984;22,210;32,210;42,210</t>
+          <t>21,9742;31,1556;41,1677;22,315;32,315;42,314</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>21,6454;31,1126;41,984;22,210;32,210;42,210</t>
+          <t>21,20178;31,0;41,0;22,945;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>21,3227;31,563;41,492;22,105;32,105;42,105</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -6305,141 +6305,141 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>50799</v>
+        <v>76690</v>
       </c>
       <c r="C8" t="n">
-        <v>8096</v>
+        <v>12197</v>
       </c>
       <c r="D8" t="n">
-        <v>9208</v>
+        <v>13710</v>
       </c>
       <c r="E8" t="n">
-        <v>280</v>
+        <v>420</v>
       </c>
       <c r="F8" t="n">
-        <v>280</v>
+        <v>420</v>
       </c>
       <c r="G8" t="n">
-        <v>280</v>
+        <v>419</v>
       </c>
       <c r="H8" t="n">
-        <v>50799</v>
+        <v>158842</v>
       </c>
       <c r="I8" t="n">
-        <v>8096</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>9208</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>280</v>
+        <v>1260</v>
       </c>
       <c r="L8" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>25399</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>4048</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>4604</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>6762</v>
+        <v>10434</v>
       </c>
       <c r="U8" t="n">
-        <v>1179</v>
+        <v>1662</v>
       </c>
       <c r="V8" t="n">
-        <v>1038</v>
+        <v>1821</v>
       </c>
       <c r="W8" t="n">
-        <v>245</v>
+        <v>367</v>
       </c>
       <c r="X8" t="n">
-        <v>245</v>
+        <v>367</v>
       </c>
       <c r="Y8" t="n">
-        <v>245</v>
+        <v>367</v>
       </c>
       <c r="Z8" t="n">
-        <v>6762</v>
+        <v>21610</v>
       </c>
       <c r="AA8" t="n">
-        <v>1179</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>1038</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>245</v>
+        <v>1102</v>
       </c>
       <c r="AD8" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>3381</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>589</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>519</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>21,50799;31,8096;41,9208;22,280;32,280;42,280</t>
+          <t>21,76690;31,12197;41,13710;22,420;32,420;42,419</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>21,50799;31,8096;41,9208;22,280;32,280;42,280</t>
+          <t>21,158842;31,0;41,0;22,1260;32,0;42,0</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>21,25399;31,4048;41,4604;22,140;32,140;42,140</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>21,6762;31,1179;41,1038;22,245;32,245;42,245</t>
+          <t>21,10434;31,1662;41,1821;22,367;32,367;42,367</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>21,6762;31,1179;41,1038;22,245;32,245;42,245</t>
+          <t>21,21610;31,0;41,0;22,1102;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>21,3381;31,589;41,519;22,122;32,122;42,122</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -6448,141 +6448,141 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>57607</v>
+        <v>87646</v>
       </c>
       <c r="C9" t="n">
-        <v>9163</v>
+        <v>13940</v>
       </c>
       <c r="D9" t="n">
-        <v>10743</v>
+        <v>15669</v>
       </c>
       <c r="E9" t="n">
-        <v>315</v>
+        <v>472</v>
       </c>
       <c r="F9" t="n">
-        <v>315</v>
+        <v>472</v>
       </c>
       <c r="G9" t="n">
-        <v>315</v>
+        <v>472</v>
       </c>
       <c r="H9" t="n">
-        <v>57607</v>
+        <v>181534</v>
       </c>
       <c r="I9" t="n">
-        <v>9163</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>10743</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>315</v>
+        <v>1417</v>
       </c>
       <c r="L9" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>28803</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>4581</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>5371</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>7353</v>
+        <v>11594</v>
       </c>
       <c r="U9" t="n">
-        <v>1283</v>
+        <v>1844</v>
       </c>
       <c r="V9" t="n">
-        <v>1144</v>
+        <v>2066</v>
       </c>
       <c r="W9" t="n">
-        <v>280</v>
+        <v>420</v>
       </c>
       <c r="X9" t="n">
-        <v>280</v>
+        <v>420</v>
       </c>
       <c r="Y9" t="n">
-        <v>280</v>
+        <v>419</v>
       </c>
       <c r="Z9" t="n">
-        <v>7353</v>
+        <v>24013</v>
       </c>
       <c r="AA9" t="n">
-        <v>1283</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>1144</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>280</v>
+        <v>1260</v>
       </c>
       <c r="AD9" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>3676</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>641</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>572</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>21,57607;31,9163;41,10743;22,315;32,315;42,315</t>
+          <t>21,87646;31,13940;41,15669;22,472;32,472;42,472</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>21,57607;31,9163;41,10743;22,315;32,315;42,315</t>
+          <t>21,181534;31,0;41,0;22,1417;32,0;42,0</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>21,28803;31,4581;41,5371;22,157;32,157;42,157</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>21,7353;31,1283;41,1144;22,280;32,280;42,280</t>
+          <t>21,11594;31,1844;41,2066;22,420;32,420;42,419</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>21,7353;31,1283;41,1144;22,280;32,280;42,280</t>
+          <t>21,24013;31,0;41,0;22,1260;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>21,3676;31,641;41,572;22,140;32,140;42,140</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -6591,141 +6591,141 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>65386</v>
+        <v>98602</v>
       </c>
       <c r="C10" t="n">
-        <v>10400</v>
+        <v>15682</v>
       </c>
       <c r="D10" t="n">
-        <v>11833</v>
+        <v>17628</v>
       </c>
       <c r="E10" t="n">
-        <v>335</v>
+        <v>502</v>
       </c>
       <c r="F10" t="n">
-        <v>335</v>
+        <v>502</v>
       </c>
       <c r="G10" t="n">
-        <v>335</v>
+        <v>502</v>
       </c>
       <c r="H10" t="n">
-        <v>65386</v>
+        <v>204226</v>
       </c>
       <c r="I10" t="n">
-        <v>10400</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11833</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>335</v>
+        <v>1507</v>
       </c>
       <c r="L10" t="n">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>32693</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5200</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>5916</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>7961</v>
+        <v>12553</v>
       </c>
       <c r="U10" t="n">
-        <v>1389</v>
+        <v>1996</v>
       </c>
       <c r="V10" t="n">
-        <v>1254</v>
+        <v>2265</v>
       </c>
       <c r="W10" t="n">
-        <v>315</v>
+        <v>472</v>
       </c>
       <c r="X10" t="n">
-        <v>315</v>
+        <v>472</v>
       </c>
       <c r="Y10" t="n">
-        <v>315</v>
+        <v>472</v>
       </c>
       <c r="Z10" t="n">
-        <v>7961</v>
+        <v>26001</v>
       </c>
       <c r="AA10" t="n">
-        <v>1389</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>1254</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>315</v>
+        <v>1417</v>
       </c>
       <c r="AD10" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>3980</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>694</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>627</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>21,65386;31,10400;41,11833;22,335;32,335;42,335</t>
+          <t>21,98602;31,15682;41,17628;22,502;32,502;42,502</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>21,65386;31,10400;41,11833;22,335;32,335;42,335</t>
+          <t>21,204226;31,0;41,0;22,1507;32,0;42,0</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>21,32693;31,5200;41,5916;22,167;32,167;42,167</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>21,7961;31,1389;41,1254;22,315;32,315;42,315</t>
+          <t>21,12553;31,1996;41,2265;22,472;32,472;42,472</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>21,7961;31,1389;41,1254;22,315;32,315;42,315</t>
+          <t>21,26001;31,0;41,0;22,1417;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>21,3980;31,694;41,627;22,157;32,157;42,157</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -6734,141 +6734,141 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>73039</v>
+        <v>109558</v>
       </c>
       <c r="C11" t="n">
-        <v>11617</v>
+        <v>17425</v>
       </c>
       <c r="D11" t="n">
-        <v>13058</v>
+        <v>19587</v>
       </c>
       <c r="E11" t="n">
-        <v>350</v>
+        <v>525</v>
       </c>
       <c r="F11" t="n">
-        <v>350</v>
+        <v>525</v>
       </c>
       <c r="G11" t="n">
-        <v>350</v>
+        <v>524</v>
       </c>
       <c r="H11" t="n">
-        <v>73039</v>
+        <v>226918</v>
       </c>
       <c r="I11" t="n">
-        <v>11617</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>13058</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>350</v>
+        <v>1575</v>
       </c>
       <c r="L11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>36519</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>5808</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>6529</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>8582</v>
+        <v>13534</v>
       </c>
       <c r="U11" t="n">
-        <v>1497</v>
+        <v>2152</v>
       </c>
       <c r="V11" t="n">
-        <v>1368</v>
+        <v>2470</v>
       </c>
       <c r="W11" t="n">
-        <v>350</v>
+        <v>525</v>
       </c>
       <c r="X11" t="n">
-        <v>350</v>
+        <v>525</v>
       </c>
       <c r="Y11" t="n">
-        <v>350</v>
+        <v>524</v>
       </c>
       <c r="Z11" t="n">
-        <v>8582</v>
+        <v>28032</v>
       </c>
       <c r="AA11" t="n">
-        <v>1497</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>1368</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>350</v>
+        <v>1575</v>
       </c>
       <c r="AD11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>4291</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>748</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>684</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>21,73039;31,11617;41,13058;22,350;32,350;42,350</t>
+          <t>21,109558;31,17425;41,19587;22,525;32,525;42,524</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>21,73039;31,11617;41,13058;22,350;32,350;42,350</t>
+          <t>21,226918;31,0;41,0;22,1575;32,0;42,0</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>21,36519;31,5808;41,6529;22,175;32,175;42,175</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>21,8582;31,1497;41,1368;22,350;32,350;42,350</t>
+          <t>21,13534;31,2152;41,2470;22,525;32,525;42,524</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>21,8582;31,1497;41,1368;22,350;32,350;42,350</t>
+          <t>21,28032;31,0;41,0;22,1575;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>21,4291;31,748;41,684;22,175;32,175;42,175</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -7179,13 +7179,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5061812.31222</v>
+        <v>5367010.50823</v>
       </c>
       <c r="U2" t="n">
-        <v>891276.4573728</v>
+        <v>939820.3468055499</v>
       </c>
       <c r="V2" t="n">
-        <v>802610.5862</v>
+        <v>857110.17539688</v>
       </c>
       <c r="W2" t="n">
         <v>2300</v>
@@ -7226,8 +7226,16 @@
       <c r="AI2" t="n">
         <v>0</v>
       </c>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>21,813838;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL2" t="n">
         <v>11648273.12724</v>
       </c>
@@ -7247,10 +7255,10 @@
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>953523.6709780351</v>
       </c>
       <c r="AS2" t="n">
-        <v>15843226.23874232</v>
+        <v>16796749.90972035</v>
       </c>
     </row>
     <row r="3">
@@ -7314,13 +7322,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>635544.72619</v>
+        <v>671111.1228349999</v>
       </c>
       <c r="U3" t="n">
-        <v>130452.2597536</v>
+        <v>136108.72981535</v>
       </c>
       <c r="V3" t="n">
-        <v>106486.8086</v>
+        <v>112970.54425064</v>
       </c>
       <c r="W3" t="n">
         <v>2300</v>
@@ -7361,8 +7369,16 @@
       <c r="AI3" t="n">
         <v>0</v>
       </c>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>21,94129;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL3" t="n">
         <v>1321515.74128</v>
       </c>
@@ -7382,10 +7398,10 @@
         <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>111877.520062255</v>
       </c>
       <c r="AS3" t="n">
-        <v>2164559.96793984</v>
+        <v>2276437.488002095</v>
       </c>
     </row>
     <row r="4">
@@ -7854,13 +7870,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>55714.9172</v>
+        <v>66907.07870319999</v>
       </c>
       <c r="U7" t="n">
-        <v>9825.450000000001</v>
+        <v>11609.1707</v>
       </c>
       <c r="V7" t="n">
-        <v>6419.08</v>
+        <v>8406.527372</v>
       </c>
       <c r="W7" t="n">
         <v>1000</v>
@@ -7901,8 +7917,16 @@
       <c r="AI7" t="n">
         <v>0</v>
       </c>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>21,23402;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL7" t="n">
         <v>117029.4322</v>
       </c>
@@ -7922,10 +7946,10 @@
         <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>34927.6567222</v>
       </c>
       <c r="AS7" t="n">
-        <v>165574.7322</v>
+        <v>200502.3889222</v>
       </c>
     </row>
     <row r="8">
@@ -7989,13 +8013,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>55912.551786</v>
+        <v>78297.87479239999</v>
       </c>
       <c r="U8" t="n">
-        <v>9881.077600000001</v>
+        <v>13449.519</v>
       </c>
       <c r="V8" t="n">
-        <v>6419.08</v>
+        <v>10395.473852</v>
       </c>
       <c r="W8" t="n">
         <v>1000</v>
@@ -8036,8 +8060,16 @@
       <c r="AI8" t="n">
         <v>0</v>
       </c>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>21,46805;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL8" t="n">
         <v>117029.4322</v>
       </c>
@@ -8057,10 +8089,10 @@
         <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>69871.83331540001</v>
       </c>
       <c r="AS8" t="n">
-        <v>166156.197226</v>
+        <v>236028.0305414</v>
       </c>
     </row>
     <row r="9">
@@ -8259,13 +8291,13 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>237792.2331</v>
+        <v>249830.36882</v>
       </c>
       <c r="U10" t="n">
-        <v>39443.353536</v>
+        <v>41359.47468799999</v>
       </c>
       <c r="V10" t="n">
-        <v>32098.0776</v>
+        <v>34214.57093784</v>
       </c>
       <c r="W10" t="n">
         <v>2300</v>
@@ -8306,8 +8338,16 @@
       <c r="AI10" t="n">
         <v>0</v>
       </c>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>21,25940;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL10" t="n">
         <v>536050.791</v>
       </c>
@@ -8327,10 +8367,10 @@
         <v>0</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>37429.20836138</v>
       </c>
       <c r="AS10" t="n">
-        <v>706830.3186983999</v>
+        <v>744259.52705978</v>
       </c>
     </row>
     <row r="11">
@@ -8394,13 +8434,13 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>246818.3641</v>
+        <v>307013.0427</v>
       </c>
       <c r="U11" t="n">
-        <v>41764.968896</v>
+        <v>51347.574656</v>
       </c>
       <c r="V11" t="n">
-        <v>32098.0776</v>
+        <v>42694.28960024</v>
       </c>
       <c r="W11" t="n">
         <v>2300</v>
@@ -8441,8 +8481,16 @@
       <c r="AI11" t="n">
         <v>0</v>
       </c>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>21,129706;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL11" t="n">
         <v>536050.791</v>
       </c>
@@ -8462,10 +8510,10 @@
         <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>187242.87734538</v>
       </c>
       <c r="AS11" t="n">
-        <v>732453.0956823999</v>
+        <v>919695.9730277801</v>
       </c>
     </row>
     <row r="12">
@@ -8529,13 +8577,13 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>255844.4951</v>
+        <v>316039.1737</v>
       </c>
       <c r="U12" t="n">
-        <v>44086.58425599999</v>
+        <v>53669.19001599999</v>
       </c>
       <c r="V12" t="n">
-        <v>32098.0776</v>
+        <v>42694.28960024</v>
       </c>
       <c r="W12" t="n">
         <v>2300</v>
@@ -8576,8 +8624,16 @@
       <c r="AI12" t="n">
         <v>0</v>
       </c>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>21,129706;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL12" t="n">
         <v>536050.791</v>
       </c>
@@ -8597,10 +8653,10 @@
         <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>0</v>
+        <v>187242.87734538</v>
       </c>
       <c r="AS12" t="n">
-        <v>758075.8726664</v>
+        <v>945318.75001178</v>
       </c>
     </row>
     <row r="13">
@@ -8664,13 +8720,13 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>264870.6261</v>
+        <v>383906.06365</v>
       </c>
       <c r="U13" t="n">
-        <v>46408.199616</v>
+        <v>65356.75969599999</v>
       </c>
       <c r="V13" t="n">
-        <v>32098.0776</v>
+        <v>53092.71334624</v>
       </c>
       <c r="W13" t="n">
         <v>2300</v>
@@ -8711,8 +8767,16 @@
       <c r="AI13" t="n">
         <v>0</v>
       </c>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>21,255350;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL13" t="n">
         <v>536050.791</v>
       </c>
@@ -8732,10 +8796,10 @@
         <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>370499.65764288</v>
       </c>
       <c r="AS13" t="n">
-        <v>783698.6496503999</v>
+        <v>1154198.30729328</v>
       </c>
     </row>
     <row r="14">
@@ -8799,13 +8863,13 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>264870.6261</v>
+        <v>325065.3047</v>
       </c>
       <c r="U14" t="n">
-        <v>46408.199616</v>
+        <v>55990.805376</v>
       </c>
       <c r="V14" t="n">
-        <v>32098.0776</v>
+        <v>42694.28960024</v>
       </c>
       <c r="W14" t="n">
         <v>2300</v>
@@ -8846,8 +8910,16 @@
       <c r="AI14" t="n">
         <v>0</v>
       </c>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>21,129706;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL14" t="n">
         <v>536050.791</v>
       </c>
@@ -8867,10 +8939,10 @@
         <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>0</v>
+        <v>187242.87734538</v>
       </c>
       <c r="AS14" t="n">
-        <v>783516.6496503999</v>
+        <v>970759.5269957801</v>
       </c>
     </row>
     <row r="15">
@@ -8934,13 +9006,13 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>395215.248796</v>
+        <v>470698.7760312</v>
       </c>
       <c r="U15" t="n">
-        <v>69533.9384064</v>
+        <v>81549.2250912</v>
       </c>
       <c r="V15" t="n">
-        <v>55322.0434</v>
+        <v>68696.58853806001</v>
       </c>
       <c r="W15" t="n">
         <v>2300</v>
@@ -8981,8 +9053,16 @@
       <c r="AI15" t="n">
         <v>0</v>
       </c>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>21,165395;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL15" t="n">
         <v>830550.77067</v>
       </c>
@@ -9002,10 +9082,10 @@
         <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>235292.639904165</v>
       </c>
       <c r="AS15" t="n">
-        <v>1207330.67335016</v>
+        <v>1442623.313254325</v>
       </c>
     </row>
     <row r="16">
@@ -9069,13 +9149,13 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>395215.248796</v>
+        <v>483278.5305703999</v>
       </c>
       <c r="U16" t="n">
-        <v>69533.9384064</v>
+        <v>83551.272872</v>
       </c>
       <c r="V16" t="n">
-        <v>55322.0434</v>
+        <v>70925.76599846</v>
       </c>
       <c r="W16" t="n">
         <v>2300</v>
@@ -9116,8 +9196,16 @@
       <c r="AI16" t="n">
         <v>0</v>
       </c>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>21,192961;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL16" t="n">
         <v>830550.77067</v>
       </c>
@@ -9137,10 +9225,10 @@
         <v>0</v>
       </c>
       <c r="AR16" t="n">
-        <v>0</v>
+        <v>274504.294528185</v>
       </c>
       <c r="AS16" t="n">
-        <v>1207512.67335016</v>
+        <v>1482016.967878345</v>
       </c>
     </row>
     <row r="17">
@@ -9204,13 +9292,13 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>974275.8202979999</v>
+        <v>1090278.91910152</v>
       </c>
       <c r="U17" t="n">
-        <v>174946.5277312</v>
+        <v>193406.28807488</v>
       </c>
       <c r="V17" t="n">
-        <v>162649.2</v>
+        <v>183696.18688</v>
       </c>
       <c r="W17" t="n">
         <v>2300</v>
@@ -9251,8 +9339,16 @@
       <c r="AI17" t="n">
         <v>0</v>
       </c>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>21,266665;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL17" t="n">
         <v>1917495.96896</v>
       </c>
@@ -9272,10 +9368,10 @@
         <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>0</v>
+        <v>364395.619734912</v>
       </c>
       <c r="AS17" t="n">
-        <v>3131779.26164328</v>
+        <v>3496174.881378192</v>
       </c>
     </row>
     <row r="18">
@@ -9339,13 +9435,13 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5061812.31222</v>
+        <v>5367010.50823</v>
       </c>
       <c r="U18" t="n">
-        <v>891276.4573728</v>
+        <v>939820.3468055499</v>
       </c>
       <c r="V18" t="n">
-        <v>802610.5862</v>
+        <v>857110.17539688</v>
       </c>
       <c r="W18" t="n">
         <v>2300</v>
@@ -9386,8 +9482,16 @@
       <c r="AI18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>21,813838;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL18" t="n">
         <v>11648273.12724</v>
       </c>
@@ -9407,10 +9511,10 @@
         <v>0</v>
       </c>
       <c r="AR18" t="n">
-        <v>0</v>
+        <v>953523.6709780351</v>
       </c>
       <c r="AS18" t="n">
-        <v>15843226.23874232</v>
+        <v>16796749.90972035</v>
       </c>
     </row>
     <row r="19">
@@ -9474,13 +9578,13 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>8359329.85751</v>
+        <v>8664528.05352</v>
       </c>
       <c r="U19" t="n">
-        <v>1472662.2348512</v>
+        <v>1521206.12428395</v>
       </c>
       <c r="V19" t="n">
-        <v>1319530.0184</v>
+        <v>1374029.60759688</v>
       </c>
       <c r="W19" t="n">
         <v>2300</v>
@@ -9521,8 +9625,16 @@
       <c r="AI19" t="n">
         <v>0</v>
       </c>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>21,813838;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL19" t="n">
         <v>18893495.49241</v>
       </c>
@@ -9542,10 +9654,10 @@
         <v>0</v>
       </c>
       <c r="AR19" t="n">
-        <v>0</v>
+        <v>953523.6709780351</v>
       </c>
       <c r="AS19" t="n">
-        <v>26126958.38378328</v>
+        <v>27080482.05476131</v>
       </c>
     </row>
     <row r="20">
@@ -9609,13 +9721,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>213115.2973665</v>
+        <v>219672.04079566</v>
       </c>
       <c r="U20" t="n">
-        <v>38169.9848032</v>
+        <v>39328.13591528</v>
       </c>
       <c r="V20" t="n">
-        <v>28286.688</v>
+        <v>29186.6451776</v>
       </c>
       <c r="W20" t="n">
         <v>1000</v>
@@ -9656,8 +9768,16 @@
       <c r="AI20" t="n">
         <v>0</v>
       </c>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>21,14499;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL20" t="n">
         <v>561246.12956</v>
       </c>
@@ -9677,10 +9797,10 @@
         <v>0</v>
       </c>
       <c r="AR20" t="n">
-        <v>0</v>
+        <v>19722.739873712</v>
       </c>
       <c r="AS20" t="n">
-        <v>644291.1485085801</v>
+        <v>664013.888382292</v>
       </c>
     </row>
     <row r="21">
@@ -9744,13 +9864,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>275625.959265</v>
+        <v>284390.4380065</v>
       </c>
       <c r="U21" t="n">
-        <v>48984.58504960001</v>
+        <v>50467.90273620001</v>
       </c>
       <c r="V21" t="n">
-        <v>37789.1944</v>
+        <v>39093.64442176</v>
       </c>
       <c r="W21" t="n">
         <v>1250</v>
@@ -9791,8 +9911,16 @@
       <c r="AI21" t="n">
         <v>0</v>
       </c>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>21,20304;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL21" t="n">
         <v>669691.90628</v>
       </c>
@@ -9812,10 +9940,10 @@
         <v>0</v>
       </c>
       <c r="AR21" t="n">
-        <v>0</v>
+        <v>26499.95840416</v>
       </c>
       <c r="AS21" t="n">
-        <v>838895.2139072401</v>
+        <v>865395.1723113999</v>
       </c>
     </row>
     <row r="22">
@@ -9879,13 +10007,13 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>382376.0989</v>
+        <v>398757.419616</v>
       </c>
       <c r="U22" t="n">
-        <v>66970.9783776</v>
+        <v>69597.97926244</v>
       </c>
       <c r="V22" t="n">
-        <v>54236.8072</v>
+        <v>56993.88038864001</v>
       </c>
       <c r="W22" t="n">
         <v>2300</v>
@@ -9926,8 +10054,16 @@
       <c r="AI22" t="n">
         <v>0</v>
       </c>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>21,40725;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL22" t="n">
         <v>854548.1929800001</v>
       </c>
@@ -9947,10 +10083,10 @@
         <v>0</v>
       </c>
       <c r="AR22" t="n">
-        <v>0</v>
+        <v>50360.797656076</v>
       </c>
       <c r="AS22" t="n">
-        <v>1169807.49110544</v>
+        <v>1220168.288761516</v>
       </c>
     </row>
     <row r="23">
@@ -10014,13 +10150,13 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>437120.751442</v>
+        <v>458652.88709388</v>
       </c>
       <c r="U23" t="n">
-        <v>79761.9769472</v>
+        <v>83200.36801608</v>
       </c>
       <c r="V23" t="n">
-        <v>62641.1413</v>
+        <v>66358.29602571001</v>
       </c>
       <c r="W23" t="n">
         <v>2300</v>
@@ -10061,8 +10197,16 @@
       <c r="AI23" t="n">
         <v>0</v>
       </c>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>21,54934;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL23" t="n">
         <v>934288.8610350001</v>
       </c>
@@ -10082,10 +10226,10 @@
         <v>0</v>
       </c>
       <c r="AR23" t="n">
-        <v>0</v>
+        <v>66630.6736999845</v>
       </c>
       <c r="AS23" t="n">
-        <v>1362076.45485268</v>
+        <v>1428707.128552665</v>
       </c>
     </row>
     <row r="24">
@@ -10149,13 +10293,13 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>502174.2812</v>
+        <v>528070.83688</v>
       </c>
       <c r="U24" t="n">
-        <v>96355.6511744</v>
+        <v>100479.250012</v>
       </c>
       <c r="V24" t="n">
-        <v>77152.6182</v>
+        <v>81727.33118258</v>
       </c>
       <c r="W24" t="n">
         <v>2300</v>
@@ -10196,8 +10340,16 @@
       <c r="AI24" t="n">
         <v>0</v>
       </c>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>21,66920;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL24" t="n">
         <v>1060142.01797</v>
       </c>
@@ -10217,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="AR24" t="n">
-        <v>0</v>
+        <v>80653.98730927501</v>
       </c>
       <c r="AS24" t="n">
-        <v>1625795.32895336</v>
+        <v>1706449.316262635</v>
       </c>
     </row>
     <row r="25">
@@ -10284,13 +10436,13 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>635544.72619</v>
+        <v>671111.1228349999</v>
       </c>
       <c r="U25" t="n">
-        <v>130452.2597536</v>
+        <v>136108.72981535</v>
       </c>
       <c r="V25" t="n">
-        <v>106486.8086</v>
+        <v>112970.54425064</v>
       </c>
       <c r="W25" t="n">
         <v>2300</v>
@@ -10331,8 +10483,16 @@
       <c r="AI25" t="n">
         <v>0</v>
       </c>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>21,94129;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL25" t="n">
         <v>1321515.74128</v>
       </c>
@@ -10352,10 +10512,10 @@
         <v>0</v>
       </c>
       <c r="AR25" t="n">
-        <v>0</v>
+        <v>111877.520062255</v>
       </c>
       <c r="AS25" t="n">
-        <v>2164559.96793984</v>
+        <v>2276437.488002095</v>
       </c>
     </row>
   </sheetData>

--- a/opm_hero_property/heroes/42.xlsx
+++ b/opm_hero_property/heroes/42.xlsx
@@ -6883,7 +6883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS25"/>
+  <dimension ref="A1:AW25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7079,40 +7079,60 @@
       </c>
       <c r="AL1" t="inlineStr">
         <is>
+          <t>job_contact</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>attr_addition</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>pvp_addition</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
           <t>基础战力</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>装备战力</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>天赋战力</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>研究所战力</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>职阶战力</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>机械核心战力</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>限制器战力</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>收集战力</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
         <is>
           <t>总战力</t>
         </is>
@@ -7152,7 +7172,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L2" t="n">
         <v>42</v>
@@ -7179,13 +7199,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5367010.50823</v>
+        <v>6261364.90215</v>
       </c>
       <c r="U2" t="n">
-        <v>939820.3468055499</v>
+        <v>1082077.60689355</v>
       </c>
       <c r="V2" t="n">
-        <v>857110.17539688</v>
+        <v>1017014.83829288</v>
       </c>
       <c r="W2" t="n">
         <v>2300</v>
@@ -7224,7 +7244,7 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
@@ -7237,28 +7257,36 @@
         </is>
       </c>
       <c r="AL2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="n">
         <v>11648273.12724</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AP2" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AQ2" t="n">
         <v>1593634.86150232</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AR2" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP2" t="n">
-        <v>2006045.6</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
+        <v>2937841.4501792</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1863585.45</v>
+      </c>
+      <c r="AU2" t="n">
         <v>953523.6709780351</v>
       </c>
-      <c r="AS2" t="n">
-        <v>16796749.90972035</v>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>19592131.20989955</v>
       </c>
     </row>
     <row r="3">
@@ -7295,7 +7323,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L3" t="n">
         <v>42</v>
@@ -7322,13 +7350,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>671111.1228349999</v>
+        <v>771830.298675</v>
       </c>
       <c r="U3" t="n">
-        <v>136108.72981535</v>
+        <v>152128.87467135</v>
       </c>
       <c r="V3" t="n">
-        <v>112970.54425064</v>
+        <v>131353.38493864</v>
       </c>
       <c r="W3" t="n">
         <v>2300</v>
@@ -7367,7 +7395,7 @@
         <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
@@ -7380,28 +7408,36 @@
         </is>
       </c>
       <c r="AL3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="n">
         <v>1321515.74128</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AP3" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AQ3" t="n">
         <v>181006.22665984</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AR3" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP3" t="n">
-        <v>479008.6</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
+      <c r="AS3" t="n">
+        <v>584663.8593023999</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>211304.25</v>
+      </c>
+      <c r="AU3" t="n">
         <v>111877.520062255</v>
       </c>
-      <c r="AS3" t="n">
-        <v>2276437.488002095</v>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>2593396.997304495</v>
       </c>
     </row>
     <row r="4">
@@ -7438,7 +7474,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>42</v>
@@ -7465,13 +7501,13 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>7447.0868</v>
+        <v>7918.0868</v>
       </c>
       <c r="U4" t="n">
-        <v>1525.7458</v>
+        <v>1599.7458</v>
       </c>
       <c r="V4" t="n">
-        <v>637.972</v>
+        <v>721.972</v>
       </c>
       <c r="W4" t="n">
         <v>562</v>
@@ -7510,25 +7546,21 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="n">
         <v>18906.42182</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AP4" t="n">
         <v>4549.950000000001</v>
       </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ4" t="n">
         <v>0</v>
       </c>
@@ -7536,7 +7568,19 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>23456.37182</v>
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1464.6</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>24920.97182</v>
       </c>
     </row>
     <row r="5">
@@ -7573,7 +7617,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>42</v>
@@ -7600,13 +7644,13 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>19897.6243</v>
+        <v>33742.6243</v>
       </c>
       <c r="U5" t="n">
-        <v>3794.575</v>
+        <v>5996.575</v>
       </c>
       <c r="V5" t="n">
-        <v>1991.778</v>
+        <v>4466.778</v>
       </c>
       <c r="W5" t="n">
         <v>673</v>
@@ -7645,25 +7689,21 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="n">
         <v>48427.0153</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AP5" t="n">
         <v>11988.35</v>
       </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
@@ -7671,7 +7711,19 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>60415.3653</v>
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>43270.05</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>103685.4153</v>
       </c>
     </row>
     <row r="6">
@@ -7708,7 +7760,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
         <v>42</v>
@@ -7735,13 +7787,13 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>55714.9172</v>
+        <v>115069.9172</v>
       </c>
       <c r="U6" t="n">
-        <v>9825.450000000001</v>
+        <v>19266.45</v>
       </c>
       <c r="V6" t="n">
-        <v>6419.08</v>
+        <v>17031.08</v>
       </c>
       <c r="W6" t="n">
         <v>1000</v>
@@ -7780,33 +7832,41 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="n">
         <v>117029.4322</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AP6" t="n">
         <v>32846</v>
       </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AS6" t="n">
         <v>9356.799999999999</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>165392.7322</v>
+      <c r="AT6" t="n">
+        <v>185516.9</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>350909.6322</v>
       </c>
     </row>
     <row r="7">
@@ -7843,7 +7903,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
         <v>42</v>
@@ -7870,13 +7930,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>66907.07870319999</v>
+        <v>126262.0787032</v>
       </c>
       <c r="U7" t="n">
-        <v>11609.1707</v>
+        <v>21050.1707</v>
       </c>
       <c r="V7" t="n">
-        <v>8406.527372</v>
+        <v>19018.527372</v>
       </c>
       <c r="W7" t="n">
         <v>1000</v>
@@ -7915,7 +7975,7 @@
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
@@ -7928,28 +7988,36 @@
         </is>
       </c>
       <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="n">
         <v>117029.4322</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AP7" t="n">
         <v>32846</v>
       </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AS7" t="n">
         <v>9538.799999999999</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
+      <c r="AT7" t="n">
+        <v>185516.9</v>
+      </c>
+      <c r="AU7" t="n">
         <v>34927.6567222</v>
       </c>
-      <c r="AS7" t="n">
-        <v>200502.3889222</v>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>386019.2889222</v>
       </c>
     </row>
     <row r="8">
@@ -7986,7 +8054,7 @@
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
         <v>42</v>
@@ -8013,13 +8081,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>78297.87479239999</v>
+        <v>137652.8747924</v>
       </c>
       <c r="U8" t="n">
-        <v>13449.519</v>
+        <v>22890.519</v>
       </c>
       <c r="V8" t="n">
-        <v>10395.473852</v>
+        <v>21007.473852</v>
       </c>
       <c r="W8" t="n">
         <v>1000</v>
@@ -8058,7 +8126,7 @@
         <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
@@ -8071,28 +8139,36 @@
         </is>
       </c>
       <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="n">
         <v>117029.4322</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AP8" t="n">
         <v>32846</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AQ8" t="n">
         <v>581.465026</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AR8" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AS8" t="n">
         <v>9538.799999999999</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
+      <c r="AT8" t="n">
+        <v>185516.9</v>
+      </c>
+      <c r="AU8" t="n">
         <v>69871.83331540001</v>
       </c>
-      <c r="AS8" t="n">
-        <v>236028.0305414</v>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>421544.9305414</v>
       </c>
     </row>
     <row r="9">
@@ -8129,7 +8205,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
         <v>42</v>
@@ -8156,31 +8232,31 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>236889.62</v>
+        <v>414563.8462</v>
       </c>
       <c r="U9" t="n">
-        <v>39211.192</v>
+        <v>66566.39392</v>
       </c>
       <c r="V9" t="n">
-        <v>32098.0776</v>
+        <v>61288.710376</v>
       </c>
       <c r="W9" t="n">
-        <v>2300</v>
+        <v>2310</v>
       </c>
       <c r="X9" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="Y9" t="n">
         <v>15000</v>
       </c>
       <c r="Z9" t="n">
-        <v>2370</v>
+        <v>2380</v>
       </c>
       <c r="AA9" t="n">
-        <v>3600</v>
+        <v>3610</v>
       </c>
       <c r="AB9" t="n">
-        <v>1290</v>
+        <v>1330</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -8201,33 +8277,41 @@
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="n">
         <v>536050.791</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AP9" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP9" t="n">
-        <v>38885</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
       <c r="AS9" t="n">
-        <v>704325.791</v>
+        <v>44237.25791</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>434691.4</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>94347.60000000005</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1238717.04891</v>
       </c>
     </row>
     <row r="10">
@@ -8264,7 +8348,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
         <v>42</v>
@@ -8291,31 +8375,31 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>249830.36882</v>
+        <v>484796.63773036</v>
       </c>
       <c r="U10" t="n">
-        <v>41359.47468799999</v>
+        <v>77909.972965888</v>
       </c>
       <c r="V10" t="n">
-        <v>34214.57093784</v>
+        <v>70043.69738068913</v>
       </c>
       <c r="W10" t="n">
-        <v>2300</v>
+        <v>2310</v>
       </c>
       <c r="X10" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="Y10" t="n">
         <v>15000</v>
       </c>
       <c r="Z10" t="n">
-        <v>2370</v>
+        <v>2380</v>
       </c>
       <c r="AA10" t="n">
-        <v>3600</v>
+        <v>3610</v>
       </c>
       <c r="AB10" t="n">
-        <v>1290</v>
+        <v>1330</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -8336,7 +8420,7 @@
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
@@ -8349,28 +8433,40 @@
         </is>
       </c>
       <c r="AL10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO10" t="n">
         <v>536050.791</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AP10" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AQ10" t="n">
         <v>2504.5276984</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AR10" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP10" t="n">
-        <v>38885</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
+      <c r="AS10" t="n">
+        <v>44237.25791</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>434691.4</v>
+      </c>
+      <c r="AU10" t="n">
         <v>37429.20836138</v>
       </c>
-      <c r="AS10" t="n">
-        <v>744259.52705978</v>
+      <c r="AV10" t="n">
+        <v>253258.5261641697</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1437561.71113395</v>
       </c>
     </row>
     <row r="11">
@@ -8407,7 +8503,7 @@
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L11" t="n">
         <v>42</v>
@@ -8434,31 +8530,31 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>307013.0427</v>
+        <v>607183.3197402001</v>
       </c>
       <c r="U11" t="n">
-        <v>51347.574656</v>
+        <v>96968.33253273601</v>
       </c>
       <c r="V11" t="n">
-        <v>42694.28960024</v>
+        <v>85802.05097901233</v>
       </c>
       <c r="W11" t="n">
-        <v>2300</v>
+        <v>2310</v>
       </c>
       <c r="X11" t="n">
-        <v>1070</v>
+        <v>1080</v>
       </c>
       <c r="Y11" t="n">
         <v>15000</v>
       </c>
       <c r="Z11" t="n">
-        <v>2370</v>
+        <v>2380</v>
       </c>
       <c r="AA11" t="n">
-        <v>3600</v>
+        <v>3610</v>
       </c>
       <c r="AB11" t="n">
-        <v>1290</v>
+        <v>1330</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -8479,7 +8575,7 @@
         <v>5</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
@@ -8492,28 +8588,40 @@
         </is>
       </c>
       <c r="AL11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO11" t="n">
         <v>536050.791</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AP11" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AQ11" t="n">
         <v>28127.3046824</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AR11" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP11" t="n">
-        <v>38885</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
+      <c r="AS11" t="n">
+        <v>44237.25791</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>434691.4</v>
+      </c>
+      <c r="AU11" t="n">
         <v>187242.87734538</v>
       </c>
-      <c r="AS11" t="n">
-        <v>919695.9730277801</v>
+      <c r="AV11" t="n">
+        <v>422899.4764076193</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1782639.107345399</v>
       </c>
     </row>
     <row r="12">
@@ -8550,7 +8658,7 @@
         <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L12" t="n">
         <v>42</v>
@@ -8577,31 +8685,31 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>316039.1737</v>
+        <v>698822.8372978999</v>
       </c>
       <c r="U12" t="n">
-        <v>53669.19001599999</v>
+        <v>108716.480166656</v>
       </c>
       <c r="V12" t="n">
-        <v>42694.28960024</v>
+        <v>96944.47311604209</v>
       </c>
       <c r="W12" t="n">
-        <v>2300</v>
+        <v>2320</v>
       </c>
       <c r="X12" t="n">
-        <v>1420</v>
+        <v>1440</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>2370</v>
+        <v>2390</v>
       </c>
       <c r="AA12" t="n">
-        <v>3600</v>
+        <v>3620</v>
       </c>
       <c r="AB12" t="n">
-        <v>1290</v>
+        <v>1370</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -8622,7 +8730,7 @@
         <v>5</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
@@ -8635,28 +8743,40 @@
         </is>
       </c>
       <c r="AL12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO12" t="n">
         <v>536050.791</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AP12" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AQ12" t="n">
         <v>53750.0816664</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AR12" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP12" t="n">
-        <v>38885</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
+      <c r="AS12" t="n">
+        <v>44237.25791</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>434691.4</v>
+      </c>
+      <c r="AU12" t="n">
         <v>187242.87734538</v>
       </c>
-      <c r="AS12" t="n">
-        <v>945318.75001178</v>
+      <c r="AV12" t="n">
+        <v>634744.8629432883</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>2020107.270865068</v>
       </c>
     </row>
     <row r="13">
@@ -8693,7 +8813,7 @@
         <v>10</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
         <v>42</v>
@@ -8720,31 +8840,31 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>383906.06365</v>
+        <v>864186.9479368499</v>
       </c>
       <c r="U13" t="n">
-        <v>65356.75969599999</v>
+        <v>133497.752809936</v>
       </c>
       <c r="V13" t="n">
-        <v>53092.71334624</v>
+        <v>118633.1026593741</v>
       </c>
       <c r="W13" t="n">
-        <v>2300</v>
+        <v>2350</v>
       </c>
       <c r="X13" t="n">
-        <v>1770</v>
+        <v>1820</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>2370</v>
+        <v>2420</v>
       </c>
       <c r="AA13" t="n">
-        <v>3600</v>
+        <v>3650</v>
       </c>
       <c r="AB13" t="n">
-        <v>1290</v>
+        <v>1490</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -8765,7 +8885,7 @@
         <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
@@ -8778,28 +8898,40 @@
         </is>
       </c>
       <c r="AL13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO13" t="n">
         <v>536050.791</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AP13" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AQ13" t="n">
         <v>79372.8586504</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AR13" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP13" t="n">
-        <v>38885</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
+      <c r="AS13" t="n">
+        <v>44237.25791</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>434691.4</v>
+      </c>
+      <c r="AU13" t="n">
         <v>370499.65764288</v>
       </c>
-      <c r="AS13" t="n">
-        <v>1154198.30729328</v>
+      <c r="AV13" t="n">
+        <v>887867.3174135293</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>2482109.282616809</v>
       </c>
     </row>
     <row r="14">
@@ -8836,7 +8968,7 @@
         <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14" t="n">
         <v>42</v>
@@ -8863,31 +8995,31 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>325065.3047</v>
+        <v>936488.1163831999</v>
       </c>
       <c r="U14" t="n">
-        <v>55990.805376</v>
+        <v>138782.727471104</v>
       </c>
       <c r="V14" t="n">
-        <v>42694.28960024</v>
+        <v>117994.4165132698</v>
       </c>
       <c r="W14" t="n">
-        <v>2300</v>
+        <v>2350</v>
       </c>
       <c r="X14" t="n">
-        <v>1770</v>
+        <v>1820</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>2300</v>
+        <v>2350</v>
       </c>
       <c r="AA14" t="n">
-        <v>3600</v>
+        <v>3650</v>
       </c>
       <c r="AB14" t="n">
-        <v>1220</v>
+        <v>1420</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -8908,7 +9040,7 @@
         <v>5</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
@@ -8921,28 +9053,40 @@
         </is>
       </c>
       <c r="AL14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO14" t="n">
         <v>536050.791</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AP14" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AQ14" t="n">
         <v>79372.8586504</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AR14" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP14" t="n">
-        <v>38703</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
+      <c r="AS14" t="n">
+        <v>44055.25791</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>434691.4</v>
+      </c>
+      <c r="AU14" t="n">
         <v>187242.87734538</v>
       </c>
-      <c r="AS14" t="n">
-        <v>970759.5269957801</v>
+      <c r="AV14" t="n">
+        <v>1176219.145979339</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>2587022.330885119</v>
       </c>
     </row>
     <row r="15">
@@ -8979,7 +9123,7 @@
         <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L15" t="n">
         <v>42</v>
@@ -9006,31 +9150,31 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>470698.7760312</v>
+        <v>1477374.689348493</v>
       </c>
       <c r="U15" t="n">
-        <v>81549.2250912</v>
+        <v>229522.544599104</v>
       </c>
       <c r="V15" t="n">
-        <v>68696.58853806001</v>
+        <v>199347.0394825206</v>
       </c>
       <c r="W15" t="n">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="X15" t="n">
-        <v>1770</v>
+        <v>1870</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>2440</v>
+        <v>2540</v>
       </c>
       <c r="AA15" t="n">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="AB15" t="n">
-        <v>1360</v>
+        <v>1760</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -9051,7 +9195,7 @@
         <v>6</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
@@ -9064,28 +9208,40 @@
         </is>
       </c>
       <c r="AL15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO15" t="n">
         <v>830550.77067</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AP15" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AQ15" t="n">
         <v>117870.95268016</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AR15" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP15" t="n">
-        <v>111419.8</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
+      <c r="AS15" t="n">
+        <v>128014.3154134</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>795343.5</v>
+      </c>
+      <c r="AU15" t="n">
         <v>235292.639904165</v>
       </c>
-      <c r="AS15" t="n">
-        <v>1442623.313254325</v>
+      <c r="AV15" t="n">
+        <v>1968193.89543908</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4222755.224106805</v>
       </c>
     </row>
     <row r="16">
@@ -9122,7 +9278,7 @@
         <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L16" t="n">
         <v>42</v>
@@ -9149,31 +9305,31 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>483278.5305703999</v>
+        <v>1518443.31539743</v>
       </c>
       <c r="U16" t="n">
-        <v>83551.272872</v>
+        <v>235910.801305488</v>
       </c>
       <c r="V16" t="n">
-        <v>70925.76599846</v>
+        <v>205274.1146275811</v>
       </c>
       <c r="W16" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="X16" t="n">
-        <v>1770</v>
+        <v>1970</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>2510</v>
+        <v>2710</v>
       </c>
       <c r="AA16" t="n">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="AB16" t="n">
-        <v>1430</v>
+        <v>2230</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -9194,7 +9350,7 @@
         <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
@@ -9207,28 +9363,40 @@
         </is>
       </c>
       <c r="AL16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO16" t="n">
         <v>830550.77067</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AP16" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AQ16" t="n">
         <v>117870.95268016</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AR16" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP16" t="n">
-        <v>111601.8</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
+      <c r="AS16" t="n">
+        <v>128196.3154134</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>795343.5</v>
+      </c>
+      <c r="AU16" t="n">
         <v>274504.294528185</v>
       </c>
-      <c r="AS16" t="n">
-        <v>1482016.967878345</v>
+      <c r="AV16" t="n">
+        <v>2049410.520222143</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4343365.503513888</v>
       </c>
     </row>
     <row r="17">
@@ -9265,7 +9433,7 @@
         <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L17" t="n">
         <v>42</v>
@@ -9292,31 +9460,31 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1090278.91910152</v>
+        <v>2705661.920596638</v>
       </c>
       <c r="U17" t="n">
-        <v>193406.28807488</v>
+        <v>424386.1401793433</v>
       </c>
       <c r="V17" t="n">
-        <v>183696.18688</v>
+        <v>398914.57268736</v>
       </c>
       <c r="W17" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="X17" t="n">
-        <v>1770</v>
+        <v>1970</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>2790</v>
+        <v>2990</v>
       </c>
       <c r="AA17" t="n">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="AB17" t="n">
-        <v>1710</v>
+        <v>2510</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -9337,7 +9505,7 @@
         <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
@@ -9350,28 +9518,40 @@
         </is>
       </c>
       <c r="AL17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO17" t="n">
         <v>1917495.96896</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AP17" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AQ17" t="n">
         <v>258714.79268328</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AR17" t="n">
         <v>155697.55</v>
       </c>
-      <c r="AP17" t="n">
-        <v>685602</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
+      <c r="AS17" t="n">
+        <v>762268.8387583999</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1270774</v>
+      </c>
+      <c r="AU17" t="n">
         <v>364395.619734912</v>
       </c>
-      <c r="AS17" t="n">
-        <v>3496174.881378192</v>
+      <c r="AV17" t="n">
+        <v>3101608.860649835</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>7945224.580786427</v>
       </c>
     </row>
     <row r="18">
@@ -9408,7 +9588,7 @@
         <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L18" t="n">
         <v>42</v>
@@ -9435,31 +9615,31 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5367010.50823</v>
+        <v>9447591.505319798</v>
       </c>
       <c r="U18" t="n">
-        <v>939820.3468055499</v>
+        <v>1478306.364506989</v>
       </c>
       <c r="V18" t="n">
-        <v>857110.17539688</v>
+        <v>1360184.33321144</v>
       </c>
       <c r="W18" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="X18" t="n">
-        <v>1770</v>
+        <v>1970</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>3350</v>
+        <v>3550</v>
       </c>
       <c r="AA18" t="n">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="AB18" t="n">
-        <v>2270</v>
+        <v>3070</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -9480,7 +9660,7 @@
         <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
@@ -9493,28 +9673,40 @@
         </is>
       </c>
       <c r="AL18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO18" t="n">
         <v>11648273.12724</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AP18" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AQ18" t="n">
         <v>1593634.86150232</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AR18" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP18" t="n">
-        <v>2006045.6</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
+      <c r="AS18" t="n">
+        <v>2937841.4501792</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1863585.45</v>
+      </c>
+      <c r="AU18" t="n">
         <v>953523.6709780351</v>
       </c>
-      <c r="AS18" t="n">
-        <v>16796749.90972035</v>
+      <c r="AV18" t="n">
+        <v>7895829.626484244</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>27487960.8363838</v>
       </c>
     </row>
     <row r="19">
@@ -9551,7 +9743,7 @@
         <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L19" t="n">
         <v>42</v>
@@ -9578,31 +9770,31 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>8664528.05352</v>
+        <v>16096090.73610688</v>
       </c>
       <c r="U19" t="n">
-        <v>1521206.12428395</v>
+        <v>2625417.844265637</v>
       </c>
       <c r="V19" t="n">
-        <v>1374029.60759688</v>
+        <v>2393882.998182545</v>
       </c>
       <c r="W19" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="X19" t="n">
-        <v>1770</v>
+        <v>1970</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>4260</v>
+        <v>4460</v>
       </c>
       <c r="AA19" t="n">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="AB19" t="n">
-        <v>3180</v>
+        <v>3980</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -9623,7 +9815,7 @@
         <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
@@ -9636,28 +9828,40 @@
         </is>
       </c>
       <c r="AL19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>1,1,5000;2,1,5000;3,1,5000;4,1,5000;1,2,5000;2,2,5000;3,2,5000;4,2,5000;5,1,5000;5,2,5000</t>
+        </is>
+      </c>
+      <c r="AO19" t="n">
         <v>18893495.49241</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AP19" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AQ19" t="n">
         <v>2590193.14137328</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AR19" t="n">
         <v>1061573.2</v>
       </c>
-      <c r="AP19" t="n">
-        <v>3467427.6</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
+      <c r="AS19" t="n">
+        <v>6301328.173861499</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1863585.45</v>
+      </c>
+      <c r="AU19" t="n">
         <v>953523.6709780351</v>
       </c>
-      <c r="AS19" t="n">
-        <v>27080482.05476131</v>
+      <c r="AV19" t="n">
+        <v>16219694.52246659</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>47997662.60108941</v>
       </c>
     </row>
     <row r="20">
@@ -9694,7 +9898,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>42</v>
@@ -9721,13 +9925,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>219672.04079566</v>
+        <v>226356.04079566</v>
       </c>
       <c r="U20" t="n">
-        <v>39328.13591528</v>
+        <v>40391.13591528</v>
       </c>
       <c r="V20" t="n">
-        <v>29186.6451776</v>
+        <v>30406.6451776</v>
       </c>
       <c r="W20" t="n">
         <v>1000</v>
@@ -9766,7 +9970,7 @@
         <v>1</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
@@ -9779,28 +9983,36 @@
         </is>
       </c>
       <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="n">
         <v>561246.12956</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AP20" t="n">
         <v>32846</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AQ20" t="n">
         <v>2748.31894858</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AR20" t="n">
         <v>14696.9</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AS20" t="n">
         <v>32753.8</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
+      <c r="AT20" t="n">
+        <v>21033.7</v>
+      </c>
+      <c r="AU20" t="n">
         <v>19722.739873712</v>
       </c>
-      <c r="AS20" t="n">
-        <v>664013.888382292</v>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>685047.588382292</v>
       </c>
     </row>
     <row r="21">
@@ -9837,7 +10049,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
         <v>42</v>
@@ -9864,13 +10076,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>284390.4380065</v>
+        <v>298193.6082365</v>
       </c>
       <c r="U21" t="n">
-        <v>50467.90273620001</v>
+        <v>52685.5386282</v>
       </c>
       <c r="V21" t="n">
-        <v>39093.64442176</v>
+        <v>41540.84636576</v>
       </c>
       <c r="W21" t="n">
         <v>1250</v>
@@ -9909,7 +10121,7 @@
         <v>2</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
@@ -9922,28 +10134,36 @@
         </is>
       </c>
       <c r="AL21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="n">
         <v>669691.90628</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AP21" t="n">
         <v>49269</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AQ21" t="n">
         <v>35398.60762724</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AR21" t="n">
         <v>19028.1</v>
       </c>
-      <c r="AP21" t="n">
-        <v>65507.60000000001</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
+      <c r="AS21" t="n">
+        <v>72196.2690628</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>36487.6</v>
+      </c>
+      <c r="AU21" t="n">
         <v>26499.95840416</v>
       </c>
-      <c r="AS21" t="n">
-        <v>865395.1723113999</v>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>908571.4413742</v>
       </c>
     </row>
     <row r="22">
@@ -9980,7 +10200,7 @@
         <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L22" t="n">
         <v>42</v>
@@ -10007,31 +10227,31 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>398757.419616</v>
+        <v>526170.1996791919</v>
       </c>
       <c r="U22" t="n">
-        <v>69597.97926244</v>
+        <v>88062.91677983964</v>
       </c>
       <c r="V22" t="n">
-        <v>56993.88038864001</v>
+        <v>73430.19301933376</v>
       </c>
       <c r="W22" t="n">
-        <v>2300</v>
+        <v>2350</v>
       </c>
       <c r="X22" t="n">
-        <v>1420</v>
+        <v>1470</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>2370</v>
+        <v>2420</v>
       </c>
       <c r="AA22" t="n">
-        <v>3600</v>
+        <v>3650</v>
       </c>
       <c r="AB22" t="n">
-        <v>1290</v>
+        <v>1490</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -10052,7 +10272,7 @@
         <v>5</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
@@ -10065,28 +10285,40 @@
         </is>
       </c>
       <c r="AL22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO22" t="n">
         <v>854548.1929800001</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AP22" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AQ22" t="n">
         <v>82218.24812544</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AR22" t="n">
         <v>23382.7</v>
       </c>
-      <c r="AP22" t="n">
-        <v>95389.39999999999</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
+      <c r="AS22" t="n">
+        <v>103926.6319298</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>49283.4</v>
+      </c>
+      <c r="AU22" t="n">
         <v>50360.797656076</v>
       </c>
-      <c r="AS22" t="n">
-        <v>1220168.288761516</v>
+      <c r="AV22" t="n">
+        <v>292109.0146299385</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1570097.935321255</v>
       </c>
     </row>
     <row r="23">
@@ -10123,7 +10355,7 @@
         <v>7</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L23" t="n">
         <v>42</v>
@@ -10150,31 +10382,31 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>458652.88709388</v>
+        <v>676100.9413654745</v>
       </c>
       <c r="U23" t="n">
-        <v>83200.36801608</v>
+        <v>118602.7101109414</v>
       </c>
       <c r="V23" t="n">
-        <v>66358.29602571001</v>
+        <v>95241.18691950454</v>
       </c>
       <c r="W23" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="X23" t="n">
-        <v>1770</v>
+        <v>1970</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>2510</v>
+        <v>2710</v>
       </c>
       <c r="AA23" t="n">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="AB23" t="n">
-        <v>1430</v>
+        <v>2230</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -10195,7 +10427,7 @@
         <v>7</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
@@ -10208,28 +10440,40 @@
         </is>
       </c>
       <c r="AL23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO23" t="n">
         <v>934288.8610350001</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AP23" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AQ23" t="n">
         <v>131431.99381768</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AR23" t="n">
         <v>30363.65</v>
       </c>
-      <c r="AP23" t="n">
-        <v>151723</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
+      <c r="AS23" t="n">
+        <v>170392.2772207</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>90179.7</v>
+      </c>
+      <c r="AU23" t="n">
         <v>66630.6736999845</v>
       </c>
-      <c r="AS23" t="n">
-        <v>1428707.128552665</v>
+      <c r="AV23" t="n">
+        <v>521351.8601447564</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>2058907.965918121</v>
       </c>
     </row>
     <row r="24">
@@ -10266,7 +10510,7 @@
         <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L24" t="n">
         <v>42</v>
@@ -10293,31 +10537,31 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>528070.83688</v>
+        <v>849714.8217172798</v>
       </c>
       <c r="U24" t="n">
-        <v>100479.250012</v>
+        <v>153467.993904468</v>
       </c>
       <c r="V24" t="n">
-        <v>81727.33118258</v>
+        <v>126324.6248662162</v>
       </c>
       <c r="W24" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="X24" t="n">
-        <v>1770</v>
+        <v>1970</v>
       </c>
       <c r="Y24" t="n">
         <v>15000</v>
       </c>
       <c r="Z24" t="n">
-        <v>2790</v>
+        <v>2990</v>
       </c>
       <c r="AA24" t="n">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="AB24" t="n">
-        <v>1710</v>
+        <v>2510</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -10338,7 +10582,7 @@
         <v>8</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
@@ -10351,28 +10595,40 @@
         </is>
       </c>
       <c r="AL24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO24" t="n">
         <v>1060142.01797</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AP24" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AQ24" t="n">
         <v>147393.11098336</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AR24" t="n">
         <v>43173.05</v>
       </c>
-      <c r="AP24" t="n">
-        <v>260818.2</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
+      <c r="AS24" t="n">
+        <v>303190.8807188</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>144084.55</v>
+      </c>
+      <c r="AU24" t="n">
         <v>80653.98730927501</v>
       </c>
-      <c r="AS24" t="n">
-        <v>1706449.316262635</v>
+      <c r="AV24" t="n">
+        <v>759643.525657417</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>2652550.072638852</v>
       </c>
     </row>
     <row r="25">
@@ -10409,7 +10665,7 @@
         <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L25" t="n">
         <v>42</v>
@@ -10436,31 +10692,31 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>671111.1228349999</v>
+        <v>1452130.7164284</v>
       </c>
       <c r="U25" t="n">
-        <v>136108.72981535</v>
+        <v>262034.5498948424</v>
       </c>
       <c r="V25" t="n">
-        <v>112970.54425064</v>
+        <v>222200.9104664575</v>
       </c>
       <c r="W25" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="X25" t="n">
-        <v>1770</v>
+        <v>1970</v>
       </c>
       <c r="Y25" t="n">
         <v>15000</v>
       </c>
       <c r="Z25" t="n">
-        <v>3350</v>
+        <v>3550</v>
       </c>
       <c r="AA25" t="n">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="AB25" t="n">
-        <v>2270</v>
+        <v>3070</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -10481,7 +10737,7 @@
         <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
@@ -10494,28 +10750,40 @@
         </is>
       </c>
       <c r="AL25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO25" t="n">
         <v>1321515.74128</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AP25" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AQ25" t="n">
         <v>181006.22665984</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AR25" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP25" t="n">
-        <v>479008.6</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
+      <c r="AS25" t="n">
+        <v>584663.8593023999</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>211304.25</v>
+      </c>
+      <c r="AU25" t="n">
         <v>111877.520062255</v>
       </c>
-      <c r="AS25" t="n">
-        <v>2276437.488002095</v>
+      <c r="AV25" t="n">
+        <v>1963422.848580448</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4556819.845884943</v>
       </c>
     </row>
   </sheetData>
